--- a/참고자료/매입매출데이터(2019-06-26).xlsx
+++ b/참고자료/매입매출데이터(2019-06-26).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8294" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8345" uniqueCount="2086">
   <si>
     <t>매입매출 원장</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6393,6 +6393,46 @@
   </si>
   <si>
     <t>nVARCHAR2(255)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입매출장(2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_pcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io_ccode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR(5)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(5)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입:1, 매출:2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7005,9 +7045,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7018,6 +7055,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7310,7 +7350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7339,18 +7379,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10">
       <c r="J2" s="1" t="s">
@@ -40876,7 +40916,7 @@
       <c r="A1" t="s">
         <v>1409</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -40927,7 +40967,7 @@
         <v>497</v>
       </c>
       <c r="I2" s="8">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I65" si="0">H2*G2</f>
         <v>32802</v>
       </c>
     </row>
@@ -40957,7 +40997,7 @@
         <v>245</v>
       </c>
       <c r="I3" s="8">
-        <f>H3*G3</f>
+        <f t="shared" si="0"/>
         <v>21805</v>
       </c>
     </row>
@@ -40987,7 +41027,7 @@
         <v>295</v>
       </c>
       <c r="I4" s="8">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>27730</v>
       </c>
     </row>
@@ -41017,7 +41057,7 @@
         <v>2745</v>
       </c>
       <c r="I5" s="8">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>238815</v>
       </c>
     </row>
@@ -41047,7 +41087,7 @@
         <v>900</v>
       </c>
       <c r="I6" s="8">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>84600</v>
       </c>
     </row>
@@ -41077,7 +41117,7 @@
         <v>622</v>
       </c>
       <c r="I7" s="8">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>41052</v>
       </c>
     </row>
@@ -41107,7 +41147,7 @@
         <v>1885</v>
       </c>
       <c r="I8" s="8">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>188500</v>
       </c>
     </row>
@@ -41137,7 +41177,7 @@
         <v>491</v>
       </c>
       <c r="I9" s="8">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>41244</v>
       </c>
     </row>
@@ -41167,7 +41207,7 @@
         <v>591</v>
       </c>
       <c r="I10" s="8">
-        <f>H10*G10</f>
+        <f t="shared" si="0"/>
         <v>46098</v>
       </c>
     </row>
@@ -41197,7 +41237,7 @@
         <v>900</v>
       </c>
       <c r="I11" s="8">
-        <f>H11*G11</f>
+        <f t="shared" si="0"/>
         <v>83700</v>
       </c>
     </row>
@@ -41227,7 +41267,7 @@
         <v>8240</v>
       </c>
       <c r="I12" s="8">
-        <f>H12*G12</f>
+        <f t="shared" si="0"/>
         <v>601520</v>
       </c>
     </row>
@@ -41257,7 +41297,7 @@
         <v>1844</v>
       </c>
       <c r="I13" s="8">
-        <f>H13*G13</f>
+        <f t="shared" si="0"/>
         <v>164116</v>
       </c>
     </row>
@@ -41287,7 +41327,7 @@
         <v>409</v>
       </c>
       <c r="I14" s="8">
-        <f>H14*G14</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -41317,7 +41357,7 @@
         <v>2196</v>
       </c>
       <c r="I15" s="8">
-        <f>H15*G15</f>
+        <f t="shared" si="0"/>
         <v>171288</v>
       </c>
     </row>
@@ -41347,7 +41387,7 @@
         <v>655</v>
       </c>
       <c r="I16" s="8">
-        <f>H16*G16</f>
+        <f t="shared" si="0"/>
         <v>44540</v>
       </c>
     </row>
@@ -41377,7 +41417,7 @@
         <v>311</v>
       </c>
       <c r="I17" s="8">
-        <f>H17*G17</f>
+        <f t="shared" si="0"/>
         <v>24569</v>
       </c>
     </row>
@@ -41407,7 +41447,7 @@
         <v>436</v>
       </c>
       <c r="I18" s="8">
-        <f>H18*G18</f>
+        <f t="shared" si="0"/>
         <v>27904</v>
       </c>
     </row>
@@ -41437,7 +41477,7 @@
         <v>647</v>
       </c>
       <c r="I19" s="8">
-        <f>H19*G19</f>
+        <f t="shared" si="0"/>
         <v>38820</v>
       </c>
     </row>
@@ -41467,7 +41507,7 @@
         <v>2065</v>
       </c>
       <c r="I20" s="8">
-        <f>H20*G20</f>
+        <f t="shared" si="0"/>
         <v>115640</v>
       </c>
     </row>
@@ -41497,7 +41537,7 @@
         <v>887</v>
       </c>
       <c r="I21" s="8">
-        <f>H21*G21</f>
+        <f t="shared" si="0"/>
         <v>78056</v>
       </c>
     </row>
@@ -41527,7 +41567,7 @@
         <v>245</v>
       </c>
       <c r="I22" s="8">
-        <f>H22*G22</f>
+        <f t="shared" si="0"/>
         <v>12250</v>
       </c>
     </row>
@@ -41557,7 +41597,7 @@
         <v>1844</v>
       </c>
       <c r="I23" s="8">
-        <f>H23*G23</f>
+        <f t="shared" si="0"/>
         <v>141988</v>
       </c>
     </row>
@@ -41587,7 +41627,7 @@
         <v>286</v>
       </c>
       <c r="I24" s="8">
-        <f>H24*G24</f>
+        <f t="shared" si="0"/>
         <v>15444</v>
       </c>
     </row>
@@ -41617,7 +41657,7 @@
         <v>327</v>
       </c>
       <c r="I25" s="8">
-        <f>H25*G25</f>
+        <f t="shared" si="0"/>
         <v>18966</v>
       </c>
     </row>
@@ -41647,7 +41687,7 @@
         <v>436</v>
       </c>
       <c r="I26" s="8">
-        <f>H26*G26</f>
+        <f t="shared" si="0"/>
         <v>34008</v>
       </c>
     </row>
@@ -41677,7 +41717,7 @@
         <v>2049</v>
       </c>
       <c r="I27" s="8">
-        <f>H27*G27</f>
+        <f t="shared" si="0"/>
         <v>147528</v>
       </c>
     </row>
@@ -41707,7 +41747,7 @@
         <v>614</v>
       </c>
       <c r="I28" s="8">
-        <f>H28*G28</f>
+        <f t="shared" si="0"/>
         <v>59558</v>
       </c>
     </row>
@@ -41737,7 +41777,7 @@
         <v>900</v>
       </c>
       <c r="I29" s="8">
-        <f>H29*G29</f>
+        <f t="shared" si="0"/>
         <v>46800</v>
       </c>
     </row>
@@ -41767,7 +41807,7 @@
         <v>245</v>
       </c>
       <c r="I30" s="8">
-        <f>H30*G30</f>
+        <f t="shared" si="0"/>
         <v>24500</v>
       </c>
     </row>
@@ -41797,7 +41837,7 @@
         <v>655</v>
       </c>
       <c r="I31" s="8">
-        <f>H31*G31</f>
+        <f t="shared" si="0"/>
         <v>56985</v>
       </c>
     </row>
@@ -41827,7 +41867,7 @@
         <v>300</v>
       </c>
       <c r="I32" s="8">
-        <f>H32*G32</f>
+        <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
@@ -41857,7 +41897,7 @@
         <v>409</v>
       </c>
       <c r="I33" s="8">
-        <f>H33*G33</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -41887,7 +41927,7 @@
         <v>1311</v>
       </c>
       <c r="I34" s="8">
-        <f>H34*G34</f>
+        <f t="shared" si="0"/>
         <v>106191</v>
       </c>
     </row>
@@ -41917,7 +41957,7 @@
         <v>655</v>
       </c>
       <c r="I35" s="8">
-        <f>H35*G35</f>
+        <f t="shared" si="0"/>
         <v>60915</v>
       </c>
     </row>
@@ -41947,7 +41987,7 @@
         <v>384</v>
       </c>
       <c r="I36" s="8">
-        <f>H36*G36</f>
+        <f t="shared" si="0"/>
         <v>29952</v>
       </c>
     </row>
@@ -41977,7 +42017,7 @@
         <v>1647</v>
       </c>
       <c r="I37" s="8">
-        <f>H37*G37</f>
+        <f t="shared" si="0"/>
         <v>116937</v>
       </c>
     </row>
@@ -42007,7 +42047,7 @@
         <v>327</v>
       </c>
       <c r="I38" s="8">
-        <f>H38*G38</f>
+        <f t="shared" si="0"/>
         <v>17658</v>
       </c>
     </row>
@@ -42037,7 +42077,7 @@
         <v>655</v>
       </c>
       <c r="I39" s="8">
-        <f>H39*G39</f>
+        <f t="shared" si="0"/>
         <v>65500</v>
       </c>
     </row>
@@ -42067,7 +42107,7 @@
         <v>2745</v>
       </c>
       <c r="I40" s="8">
-        <f>H40*G40</f>
+        <f t="shared" si="0"/>
         <v>241560</v>
       </c>
     </row>
@@ -42097,7 +42137,7 @@
         <v>491</v>
       </c>
       <c r="I41" s="8">
-        <f>H41*G41</f>
+        <f t="shared" si="0"/>
         <v>34861</v>
       </c>
     </row>
@@ -42127,7 +42167,7 @@
         <v>311</v>
       </c>
       <c r="I42" s="8">
-        <f>H42*G42</f>
+        <f t="shared" si="0"/>
         <v>21459</v>
       </c>
     </row>
@@ -42157,7 +42197,7 @@
         <v>2049</v>
       </c>
       <c r="I43" s="8">
-        <f>H43*G43</f>
+        <f t="shared" si="0"/>
         <v>180312</v>
       </c>
     </row>
@@ -42187,7 +42227,7 @@
         <v>327</v>
       </c>
       <c r="I44" s="8">
-        <f>H44*G44</f>
+        <f t="shared" si="0"/>
         <v>22563</v>
       </c>
     </row>
@@ -42217,7 +42257,7 @@
         <v>655</v>
       </c>
       <c r="I45" s="8">
-        <f>H45*G45</f>
+        <f t="shared" si="0"/>
         <v>36025</v>
       </c>
     </row>
@@ -42247,7 +42287,7 @@
         <v>887</v>
       </c>
       <c r="I46" s="8">
-        <f>H46*G46</f>
+        <f t="shared" si="0"/>
         <v>79830</v>
       </c>
     </row>
@@ -42277,7 +42317,7 @@
         <v>650</v>
       </c>
       <c r="I47" s="8">
-        <f>H47*G47</f>
+        <f t="shared" si="0"/>
         <v>53300</v>
       </c>
     </row>
@@ -42307,7 +42347,7 @@
         <v>1844</v>
       </c>
       <c r="I48" s="8">
-        <f>H48*G48</f>
+        <f t="shared" si="0"/>
         <v>154896</v>
       </c>
     </row>
@@ -42337,7 +42377,7 @@
         <v>655</v>
       </c>
       <c r="I49" s="8">
-        <f>H49*G49</f>
+        <f t="shared" si="0"/>
         <v>62225</v>
       </c>
     </row>
@@ -42367,7 +42407,7 @@
         <v>573</v>
       </c>
       <c r="I50" s="8">
-        <f>H50*G50</f>
+        <f t="shared" si="0"/>
         <v>50997</v>
       </c>
     </row>
@@ -42397,7 +42437,7 @@
         <v>7377</v>
       </c>
       <c r="I51" s="8">
-        <f>H51*G51</f>
+        <f t="shared" si="0"/>
         <v>663930</v>
       </c>
     </row>
@@ -42427,7 +42467,7 @@
         <v>384</v>
       </c>
       <c r="I52" s="8">
-        <f>H52*G52</f>
+        <f t="shared" si="0"/>
         <v>29184</v>
       </c>
     </row>
@@ -42457,7 +42497,7 @@
         <v>204</v>
       </c>
       <c r="I53" s="8">
-        <f>H53*G53</f>
+        <f t="shared" si="0"/>
         <v>20400</v>
       </c>
     </row>
@@ -42487,7 +42527,7 @@
         <v>5778</v>
       </c>
       <c r="I54" s="8">
-        <f>H54*G54</f>
+        <f t="shared" si="0"/>
         <v>525798</v>
       </c>
     </row>
@@ -42517,7 +42557,7 @@
         <v>491</v>
       </c>
       <c r="I55" s="8">
-        <f>H55*G55</f>
+        <f t="shared" si="0"/>
         <v>43699</v>
       </c>
     </row>
@@ -42547,7 +42587,7 @@
         <v>1803</v>
       </c>
       <c r="I56" s="8">
-        <f>H56*G56</f>
+        <f t="shared" si="0"/>
         <v>97362</v>
       </c>
     </row>
@@ -42577,7 +42617,7 @@
         <v>901</v>
       </c>
       <c r="I57" s="8">
-        <f>H57*G57</f>
+        <f t="shared" si="0"/>
         <v>65773</v>
       </c>
     </row>
@@ -42607,7 +42647,7 @@
         <v>311</v>
       </c>
       <c r="I58" s="8">
-        <f>H58*G58</f>
+        <f t="shared" si="0"/>
         <v>22703</v>
       </c>
     </row>
@@ -42637,7 +42677,7 @@
         <v>819</v>
       </c>
       <c r="I59" s="8">
-        <f>H59*G59</f>
+        <f t="shared" si="0"/>
         <v>40950</v>
       </c>
     </row>
@@ -42667,7 +42707,7 @@
         <v>976</v>
       </c>
       <c r="I60" s="8">
-        <f>H60*G60</f>
+        <f t="shared" si="0"/>
         <v>53680</v>
       </c>
     </row>
@@ -42697,7 +42737,7 @@
         <v>286</v>
       </c>
       <c r="I61" s="8">
-        <f>H61*G61</f>
+        <f t="shared" si="0"/>
         <v>23166</v>
       </c>
     </row>
@@ -42727,7 +42767,7 @@
         <v>2622</v>
       </c>
       <c r="I62" s="8">
-        <f>H62*G62</f>
+        <f t="shared" si="0"/>
         <v>167808</v>
       </c>
     </row>
@@ -42757,7 +42797,7 @@
         <v>983</v>
       </c>
       <c r="I63" s="8">
-        <f>H63*G63</f>
+        <f t="shared" si="0"/>
         <v>96334</v>
       </c>
     </row>
@@ -42787,7 +42827,7 @@
         <v>2407</v>
       </c>
       <c r="I64" s="8">
-        <f>H64*G64</f>
+        <f t="shared" si="0"/>
         <v>149234</v>
       </c>
     </row>
@@ -42817,7 +42857,7 @@
         <v>409</v>
       </c>
       <c r="I65" s="8">
-        <f>H65*G65</f>
+        <f t="shared" si="0"/>
         <v>24131</v>
       </c>
     </row>
@@ -42847,7 +42887,7 @@
         <v>586</v>
       </c>
       <c r="I66" s="8">
-        <f>H66*G66</f>
+        <f t="shared" ref="I66:I129" si="1">H66*G66</f>
         <v>54498</v>
       </c>
     </row>
@@ -42877,7 +42917,7 @@
         <v>655</v>
       </c>
       <c r="I67" s="8">
-        <f>H67*G67</f>
+        <f t="shared" si="1"/>
         <v>47160</v>
       </c>
     </row>
@@ -42907,7 +42947,7 @@
         <v>344</v>
       </c>
       <c r="I68" s="8">
-        <f>H68*G68</f>
+        <f t="shared" si="1"/>
         <v>28208</v>
       </c>
     </row>
@@ -42937,7 +42977,7 @@
         <v>1844</v>
       </c>
       <c r="I69" s="8">
-        <f>H69*G69</f>
+        <f t="shared" si="1"/>
         <v>127236</v>
       </c>
     </row>
@@ -42967,7 +43007,7 @@
         <v>286</v>
       </c>
       <c r="I70" s="8">
-        <f>H70*G70</f>
+        <f t="shared" si="1"/>
         <v>23738</v>
       </c>
     </row>
@@ -42997,7 +43037,7 @@
         <v>655</v>
       </c>
       <c r="I71" s="8">
-        <f>H71*G71</f>
+        <f t="shared" si="1"/>
         <v>52400</v>
       </c>
     </row>
@@ -43027,7 +43067,7 @@
         <v>245</v>
       </c>
       <c r="I72" s="8">
-        <f>H72*G72</f>
+        <f t="shared" si="1"/>
         <v>20825</v>
       </c>
     </row>
@@ -43057,7 +43097,7 @@
         <v>311</v>
       </c>
       <c r="I73" s="8">
-        <f>H73*G73</f>
+        <f t="shared" si="1"/>
         <v>30789</v>
       </c>
     </row>
@@ -43087,7 +43127,7 @@
         <v>983</v>
       </c>
       <c r="I74" s="8">
-        <f>H74*G74</f>
+        <f t="shared" si="1"/>
         <v>95351</v>
       </c>
     </row>
@@ -43117,7 +43157,7 @@
         <v>901</v>
       </c>
       <c r="I75" s="8">
-        <f>H75*G75</f>
+        <f t="shared" si="1"/>
         <v>47753</v>
       </c>
     </row>
@@ -43147,7 +43187,7 @@
         <v>896</v>
       </c>
       <c r="I76" s="8">
-        <f>H76*G76</f>
+        <f t="shared" si="1"/>
         <v>89600</v>
       </c>
     </row>
@@ -43177,7 +43217,7 @@
         <v>1775</v>
       </c>
       <c r="I77" s="8">
-        <f>H77*G77</f>
+        <f t="shared" si="1"/>
         <v>136675</v>
       </c>
     </row>
@@ -43207,7 +43247,7 @@
         <v>1311</v>
       </c>
       <c r="I78" s="8">
-        <f>H78*G78</f>
+        <f t="shared" si="1"/>
         <v>115368</v>
       </c>
     </row>
@@ -43237,7 +43277,7 @@
         <v>1475</v>
       </c>
       <c r="I79" s="8">
-        <f>H79*G79</f>
+        <f t="shared" si="1"/>
         <v>116525</v>
       </c>
     </row>
@@ -43267,7 +43307,7 @@
         <v>1121</v>
       </c>
       <c r="I80" s="8">
-        <f>H80*G80</f>
+        <f t="shared" si="1"/>
         <v>85196</v>
       </c>
     </row>
@@ -43297,7 +43337,7 @@
         <v>655</v>
       </c>
       <c r="I81" s="8">
-        <f>H81*G81</f>
+        <f t="shared" si="1"/>
         <v>32750</v>
       </c>
     </row>
@@ -43327,7 +43367,7 @@
         <v>2065</v>
       </c>
       <c r="I82" s="8">
-        <f>H82*G82</f>
+        <f t="shared" si="1"/>
         <v>125965</v>
       </c>
     </row>
@@ -43357,7 +43397,7 @@
         <v>2196</v>
       </c>
       <c r="I83" s="8">
-        <f>H83*G83</f>
+        <f t="shared" si="1"/>
         <v>184464</v>
       </c>
     </row>
@@ -43387,7 +43427,7 @@
         <v>573</v>
       </c>
       <c r="I84" s="8">
-        <f>H84*G84</f>
+        <f t="shared" si="1"/>
         <v>41256</v>
       </c>
     </row>
@@ -43417,7 +43457,7 @@
         <v>386</v>
       </c>
       <c r="I85" s="8">
-        <f>H85*G85</f>
+        <f t="shared" si="1"/>
         <v>28950</v>
       </c>
     </row>
@@ -43447,7 +43487,7 @@
         <v>4918</v>
       </c>
       <c r="I86" s="8">
-        <f>H86*G86</f>
+        <f t="shared" si="1"/>
         <v>457374</v>
       </c>
     </row>
@@ -43477,7 +43517,7 @@
         <v>491</v>
       </c>
       <c r="I87" s="8">
-        <f>H87*G87</f>
+        <f t="shared" si="1"/>
         <v>48118</v>
       </c>
     </row>
@@ -43507,7 +43547,7 @@
         <v>1844</v>
       </c>
       <c r="I88" s="8">
-        <f>H88*G88</f>
+        <f t="shared" si="1"/>
         <v>182556</v>
       </c>
     </row>
@@ -43537,7 +43577,7 @@
         <v>655</v>
       </c>
       <c r="I89" s="8">
-        <f>H89*G89</f>
+        <f t="shared" si="1"/>
         <v>37335</v>
       </c>
     </row>
@@ -43567,7 +43607,7 @@
         <v>1639</v>
       </c>
       <c r="I90" s="8">
-        <f>H90*G90</f>
+        <f t="shared" si="1"/>
         <v>132759</v>
       </c>
     </row>
@@ -43597,7 +43637,7 @@
         <v>655</v>
       </c>
       <c r="I91" s="8">
-        <f>H91*G91</f>
+        <f t="shared" si="1"/>
         <v>40610</v>
       </c>
     </row>
@@ -43627,7 +43667,7 @@
         <v>1704</v>
       </c>
       <c r="I92" s="8">
-        <f>H92*G92</f>
+        <f t="shared" si="1"/>
         <v>127800</v>
       </c>
     </row>
@@ -43657,7 +43697,7 @@
         <v>860</v>
       </c>
       <c r="I93" s="8">
-        <f>H93*G93</f>
+        <f t="shared" si="1"/>
         <v>43860</v>
       </c>
     </row>
@@ -43687,7 +43727,7 @@
         <v>409</v>
       </c>
       <c r="I94" s="8">
-        <f>H94*G94</f>
+        <f t="shared" si="1"/>
         <v>36401</v>
       </c>
     </row>
@@ -43717,7 +43757,7 @@
         <v>1844</v>
       </c>
       <c r="I95" s="8">
-        <f>H95*G95</f>
+        <f t="shared" si="1"/>
         <v>106952</v>
       </c>
     </row>
@@ -43747,7 +43787,7 @@
         <v>327</v>
       </c>
       <c r="I96" s="8">
-        <f>H96*G96</f>
+        <f t="shared" si="1"/>
         <v>20274</v>
       </c>
     </row>
@@ -43777,7 +43817,7 @@
         <v>368</v>
       </c>
       <c r="I97" s="8">
-        <f>H97*G97</f>
+        <f t="shared" si="1"/>
         <v>30176</v>
       </c>
     </row>
@@ -43807,7 +43847,7 @@
         <v>1844</v>
       </c>
       <c r="I98" s="8">
-        <f>H98*G98</f>
+        <f t="shared" si="1"/>
         <v>119860</v>
       </c>
     </row>
@@ -43837,7 +43877,7 @@
         <v>614</v>
       </c>
       <c r="I99" s="8">
-        <f>H99*G99</f>
+        <f t="shared" si="1"/>
         <v>39910</v>
       </c>
     </row>
@@ -43867,7 +43907,7 @@
         <v>286</v>
       </c>
       <c r="I100" s="8">
-        <f>H100*G100</f>
+        <f t="shared" si="1"/>
         <v>27742</v>
       </c>
     </row>
@@ -43897,7 +43937,7 @@
         <v>737</v>
       </c>
       <c r="I101" s="8">
-        <f>H101*G101</f>
+        <f t="shared" si="1"/>
         <v>62645</v>
       </c>
     </row>
@@ -43927,7 +43967,7 @@
         <v>295</v>
       </c>
       <c r="I102" s="8">
-        <f>H102*G102</f>
+        <f t="shared" si="1"/>
         <v>22420</v>
       </c>
     </row>
@@ -43957,7 +43997,7 @@
         <v>411</v>
       </c>
       <c r="I103" s="8">
-        <f>H103*G103</f>
+        <f t="shared" si="1"/>
         <v>28770</v>
       </c>
     </row>
@@ -43987,7 +44027,7 @@
         <v>1803</v>
       </c>
       <c r="I104" s="8">
-        <f>H104*G104</f>
+        <f t="shared" si="1"/>
         <v>104574</v>
       </c>
     </row>
@@ -44017,7 +44057,7 @@
         <v>1647</v>
       </c>
       <c r="I105" s="8">
-        <f>H105*G105</f>
+        <f t="shared" si="1"/>
         <v>121878</v>
       </c>
     </row>
@@ -44047,7 +44087,7 @@
         <v>901</v>
       </c>
       <c r="I106" s="8">
-        <f>H106*G106</f>
+        <f t="shared" si="1"/>
         <v>76585</v>
       </c>
     </row>
@@ -44077,7 +44117,7 @@
         <v>1172</v>
       </c>
       <c r="I107" s="8">
-        <f>H107*G107</f>
+        <f t="shared" si="1"/>
         <v>89072</v>
       </c>
     </row>
@@ -44107,7 +44147,7 @@
         <v>322</v>
       </c>
       <c r="I108" s="8">
-        <f>H108*G108</f>
+        <f t="shared" si="1"/>
         <v>22540</v>
       </c>
     </row>
@@ -44137,7 +44177,7 @@
         <v>737</v>
       </c>
       <c r="I109" s="8">
-        <f>H109*G109</f>
+        <f t="shared" si="1"/>
         <v>48642</v>
       </c>
     </row>
@@ -44167,7 +44207,7 @@
         <v>622</v>
       </c>
       <c r="I110" s="8">
-        <f>H110*G110</f>
+        <f t="shared" si="1"/>
         <v>41052</v>
       </c>
     </row>
@@ -44197,7 +44237,7 @@
         <v>491</v>
       </c>
       <c r="I111" s="8">
-        <f>H111*G111</f>
+        <f t="shared" si="1"/>
         <v>32897</v>
       </c>
     </row>
@@ -44227,7 +44267,7 @@
         <v>709</v>
       </c>
       <c r="I112" s="8">
-        <f>H112*G112</f>
+        <f t="shared" si="1"/>
         <v>58138</v>
       </c>
     </row>
@@ -44257,7 +44297,7 @@
         <v>622</v>
       </c>
       <c r="I113" s="8">
-        <f>H113*G113</f>
+        <f t="shared" si="1"/>
         <v>53492</v>
       </c>
     </row>
@@ -44287,7 +44327,7 @@
         <v>512</v>
       </c>
       <c r="I114" s="8">
-        <f>H114*G114</f>
+        <f t="shared" si="1"/>
         <v>37376</v>
       </c>
     </row>
@@ -44317,7 +44357,7 @@
         <v>245</v>
       </c>
       <c r="I115" s="8">
-        <f>H115*G115</f>
+        <f t="shared" si="1"/>
         <v>24010</v>
       </c>
     </row>
@@ -44347,7 +44387,7 @@
         <v>549</v>
       </c>
       <c r="I116" s="8">
-        <f>H116*G116</f>
+        <f t="shared" si="1"/>
         <v>28548</v>
       </c>
     </row>
@@ -44377,7 +44417,7 @@
         <v>901</v>
       </c>
       <c r="I117" s="8">
-        <f>H117*G117</f>
+        <f t="shared" si="1"/>
         <v>54060</v>
       </c>
     </row>
@@ -44407,7 +44447,7 @@
         <v>651</v>
       </c>
       <c r="I118" s="8">
-        <f>H118*G118</f>
+        <f t="shared" si="1"/>
         <v>48174</v>
       </c>
     </row>
@@ -44437,7 +44477,7 @@
         <v>655</v>
       </c>
       <c r="I119" s="8">
-        <f>H119*G119</f>
+        <f t="shared" si="1"/>
         <v>62880</v>
       </c>
     </row>
@@ -44467,7 +44507,7 @@
         <v>7377</v>
       </c>
       <c r="I120" s="8">
-        <f>H120*G120</f>
+        <f t="shared" si="1"/>
         <v>413112</v>
       </c>
     </row>
@@ -44497,7 +44537,7 @@
         <v>573</v>
       </c>
       <c r="I121" s="8">
-        <f>H121*G121</f>
+        <f t="shared" si="1"/>
         <v>30942</v>
       </c>
     </row>
@@ -44527,7 +44567,7 @@
         <v>368</v>
       </c>
       <c r="I122" s="8">
-        <f>H122*G122</f>
+        <f t="shared" si="1"/>
         <v>26128</v>
       </c>
     </row>
@@ -44557,7 +44597,7 @@
         <v>491</v>
       </c>
       <c r="I123" s="8">
-        <f>H123*G123</f>
+        <f t="shared" si="1"/>
         <v>31915</v>
       </c>
     </row>
@@ -44587,7 +44627,7 @@
         <v>409</v>
       </c>
       <c r="I124" s="8">
-        <f>H124*G124</f>
+        <f t="shared" si="1"/>
         <v>31902</v>
       </c>
     </row>
@@ -44617,7 +44657,7 @@
         <v>352</v>
       </c>
       <c r="I125" s="8">
-        <f>H125*G125</f>
+        <f t="shared" si="1"/>
         <v>20064</v>
       </c>
     </row>
@@ -44647,7 +44687,7 @@
         <v>386</v>
       </c>
       <c r="I126" s="8">
-        <f>H126*G126</f>
+        <f t="shared" si="1"/>
         <v>26248</v>
       </c>
     </row>
@@ -44677,7 +44717,7 @@
         <v>591</v>
       </c>
       <c r="I127" s="8">
-        <f>H127*G127</f>
+        <f t="shared" si="1"/>
         <v>34278</v>
       </c>
     </row>
@@ -44707,7 +44747,7 @@
         <v>622</v>
       </c>
       <c r="I128" s="8">
-        <f>H128*G128</f>
+        <f t="shared" si="1"/>
         <v>55358</v>
       </c>
     </row>
@@ -44737,7 +44777,7 @@
         <v>1844</v>
       </c>
       <c r="I129" s="8">
-        <f>H129*G129</f>
+        <f t="shared" si="1"/>
         <v>114328</v>
       </c>
     </row>
@@ -44767,7 +44807,7 @@
         <v>180</v>
       </c>
       <c r="I130" s="8">
-        <f>H130*G130</f>
+        <f t="shared" ref="I130:I193" si="2">H130*G130</f>
         <v>15660</v>
       </c>
     </row>
@@ -44797,7 +44837,7 @@
         <v>413</v>
       </c>
       <c r="I131" s="8">
-        <f>H131*G131</f>
+        <f t="shared" si="2"/>
         <v>30975</v>
       </c>
     </row>
@@ -44827,7 +44867,7 @@
         <v>622</v>
       </c>
       <c r="I132" s="8">
-        <f>H132*G132</f>
+        <f t="shared" si="2"/>
         <v>36698</v>
       </c>
     </row>
@@ -44857,7 +44897,7 @@
         <v>1549</v>
       </c>
       <c r="I133" s="8">
-        <f>H133*G133</f>
+        <f t="shared" si="2"/>
         <v>83646</v>
       </c>
     </row>
@@ -44887,7 +44927,7 @@
         <v>2704</v>
       </c>
       <c r="I134" s="8">
-        <f>H134*G134</f>
+        <f t="shared" si="2"/>
         <v>181168</v>
       </c>
     </row>
@@ -44917,7 +44957,7 @@
         <v>614</v>
       </c>
       <c r="I135" s="8">
-        <f>H135*G135</f>
+        <f t="shared" si="2"/>
         <v>37454</v>
       </c>
     </row>
@@ -44947,7 +44987,7 @@
         <v>1885</v>
       </c>
       <c r="I136" s="8">
-        <f>H136*G136</f>
+        <f t="shared" si="2"/>
         <v>137605</v>
       </c>
     </row>
@@ -44977,7 +45017,7 @@
         <v>1758</v>
       </c>
       <c r="I137" s="8">
-        <f>H137*G137</f>
+        <f t="shared" si="2"/>
         <v>167010</v>
       </c>
     </row>
@@ -45007,7 +45047,7 @@
         <v>272</v>
       </c>
       <c r="I138" s="8">
-        <f>H138*G138</f>
+        <f t="shared" si="2"/>
         <v>14144</v>
       </c>
     </row>
@@ -45037,7 +45077,7 @@
         <v>413</v>
       </c>
       <c r="I139" s="8">
-        <f>H139*G139</f>
+        <f t="shared" si="2"/>
         <v>39235</v>
       </c>
     </row>
@@ -45067,7 +45107,7 @@
         <v>450</v>
       </c>
       <c r="I140" s="8">
-        <f>H140*G140</f>
+        <f t="shared" si="2"/>
         <v>41850</v>
       </c>
     </row>
@@ -45097,7 +45137,7 @@
         <v>341</v>
       </c>
       <c r="I141" s="8">
-        <f>H141*G141</f>
+        <f t="shared" si="2"/>
         <v>26939</v>
       </c>
     </row>
@@ -45127,7 +45167,7 @@
         <v>286</v>
       </c>
       <c r="I142" s="8">
-        <f>H142*G142</f>
+        <f t="shared" si="2"/>
         <v>23452</v>
       </c>
     </row>
@@ -45157,7 +45197,7 @@
         <v>450</v>
       </c>
       <c r="I143" s="8">
-        <f>H143*G143</f>
+        <f t="shared" si="2"/>
         <v>35550</v>
       </c>
     </row>
@@ -45187,7 +45227,7 @@
         <v>1180</v>
       </c>
       <c r="I144" s="8">
-        <f>H144*G144</f>
+        <f t="shared" si="2"/>
         <v>102660</v>
       </c>
     </row>
@@ -45217,7 +45257,7 @@
         <v>1475</v>
       </c>
       <c r="I145" s="8">
-        <f>H145*G145</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -45247,7 +45287,7 @@
         <v>426</v>
       </c>
       <c r="I146" s="8">
-        <f>H146*G146</f>
+        <f t="shared" si="2"/>
         <v>34932</v>
       </c>
     </row>
@@ -45277,7 +45317,7 @@
         <v>614</v>
       </c>
       <c r="I147" s="8">
-        <f>H147*G147</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -45307,7 +45347,7 @@
         <v>9016</v>
       </c>
       <c r="I148" s="8">
-        <f>H148*G148</f>
+        <f t="shared" si="2"/>
         <v>892584</v>
       </c>
     </row>
@@ -45337,7 +45377,7 @@
         <v>491</v>
       </c>
       <c r="I149" s="8">
-        <f>H149*G149</f>
+        <f t="shared" si="2"/>
         <v>44190</v>
       </c>
     </row>
@@ -45367,7 +45407,7 @@
         <v>622</v>
       </c>
       <c r="I150" s="8">
-        <f>H150*G150</f>
+        <f t="shared" si="2"/>
         <v>53492</v>
       </c>
     </row>
@@ -45397,7 +45437,7 @@
         <v>327</v>
       </c>
       <c r="I151" s="8">
-        <f>H151*G151</f>
+        <f t="shared" si="2"/>
         <v>29430</v>
       </c>
     </row>
@@ -45427,7 +45467,7 @@
         <v>532</v>
       </c>
       <c r="I152" s="8">
-        <f>H152*G152</f>
+        <f t="shared" si="2"/>
         <v>52668</v>
       </c>
     </row>
@@ -45457,7 +45497,7 @@
         <v>327</v>
       </c>
       <c r="I153" s="8">
-        <f>H153*G153</f>
+        <f t="shared" si="2"/>
         <v>20601</v>
       </c>
     </row>
@@ -45487,7 +45527,7 @@
         <v>976</v>
       </c>
       <c r="I154" s="8">
-        <f>H154*G154</f>
+        <f t="shared" si="2"/>
         <v>78080</v>
       </c>
     </row>
@@ -45517,7 +45557,7 @@
         <v>1696</v>
       </c>
       <c r="I155" s="8">
-        <f>H155*G155</f>
+        <f t="shared" si="2"/>
         <v>117024</v>
       </c>
     </row>
@@ -45547,7 +45587,7 @@
         <v>1844</v>
       </c>
       <c r="I156" s="8">
-        <f>H156*G156</f>
+        <f t="shared" si="2"/>
         <v>158584</v>
       </c>
     </row>
@@ -45577,7 +45617,7 @@
         <v>1967</v>
       </c>
       <c r="I157" s="8">
-        <f>H157*G157</f>
+        <f t="shared" si="2"/>
         <v>121954</v>
       </c>
     </row>
@@ -45607,7 +45647,7 @@
         <v>1844</v>
       </c>
       <c r="I158" s="8">
-        <f>H158*G158</f>
+        <f t="shared" si="2"/>
         <v>171492</v>
       </c>
     </row>
@@ -45637,7 +45677,7 @@
         <v>1844</v>
       </c>
       <c r="I159" s="8">
-        <f>H159*G159</f>
+        <f t="shared" si="2"/>
         <v>130924</v>
       </c>
     </row>
@@ -45667,7 +45707,7 @@
         <v>819</v>
       </c>
       <c r="I160" s="8">
-        <f>H160*G160</f>
+        <f t="shared" si="2"/>
         <v>53235</v>
       </c>
     </row>
@@ -45697,7 +45737,7 @@
         <v>221</v>
       </c>
       <c r="I161" s="8">
-        <f>H161*G161</f>
+        <f t="shared" si="2"/>
         <v>15912</v>
       </c>
     </row>
@@ -45727,7 +45767,7 @@
         <v>386</v>
       </c>
       <c r="I162" s="8">
-        <f>H162*G162</f>
+        <f t="shared" si="2"/>
         <v>36670</v>
       </c>
     </row>
@@ -45757,7 +45797,7 @@
         <v>586</v>
       </c>
       <c r="I163" s="8">
-        <f>H163*G163</f>
+        <f t="shared" si="2"/>
         <v>39262</v>
       </c>
     </row>
@@ -45787,7 +45827,7 @@
         <v>436</v>
       </c>
       <c r="I164" s="8">
-        <f>H164*G164</f>
+        <f t="shared" si="2"/>
         <v>39676</v>
       </c>
     </row>
@@ -45817,7 +45857,7 @@
         <v>341</v>
       </c>
       <c r="I165" s="8">
-        <f>H165*G165</f>
+        <f t="shared" si="2"/>
         <v>30349</v>
       </c>
     </row>
@@ -45847,7 +45887,7 @@
         <v>413</v>
       </c>
       <c r="I166" s="8">
-        <f>H166*G166</f>
+        <f t="shared" si="2"/>
         <v>32627</v>
       </c>
     </row>
@@ -45877,7 +45917,7 @@
         <v>655</v>
       </c>
       <c r="I167" s="8">
-        <f>H167*G167</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -45907,7 +45947,7 @@
         <v>1844</v>
       </c>
       <c r="I168" s="8">
-        <f>H168*G168</f>
+        <f t="shared" si="2"/>
         <v>138300</v>
       </c>
     </row>
@@ -45937,7 +45977,7 @@
         <v>655</v>
       </c>
       <c r="I169" s="8">
-        <f>H169*G169</f>
+        <f t="shared" si="2"/>
         <v>41265</v>
       </c>
     </row>
@@ -45967,7 +46007,7 @@
         <v>386</v>
       </c>
       <c r="I170" s="8">
-        <f>H170*G170</f>
+        <f t="shared" si="2"/>
         <v>37828</v>
       </c>
     </row>
@@ -45997,7 +46037,7 @@
         <v>1147</v>
       </c>
       <c r="I171" s="8">
-        <f>H171*G171</f>
+        <f t="shared" si="2"/>
         <v>88319</v>
       </c>
     </row>
@@ -46027,7 +46067,7 @@
         <v>1844</v>
       </c>
       <c r="I172" s="8">
-        <f>H172*G172</f>
+        <f t="shared" si="2"/>
         <v>132768</v>
       </c>
     </row>
@@ -46057,7 +46097,7 @@
         <v>622</v>
       </c>
       <c r="I173" s="8">
-        <f>H173*G173</f>
+        <f t="shared" si="2"/>
         <v>36076</v>
       </c>
     </row>
@@ -46087,7 +46127,7 @@
         <v>1311</v>
       </c>
       <c r="I174" s="8">
-        <f>H174*G174</f>
+        <f t="shared" si="2"/>
         <v>112746</v>
       </c>
     </row>
@@ -46117,7 +46157,7 @@
         <v>614</v>
       </c>
       <c r="I175" s="8">
-        <f>H175*G175</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -46147,7 +46187,7 @@
         <v>1803</v>
       </c>
       <c r="I176" s="8">
-        <f>H176*G176</f>
+        <f t="shared" si="2"/>
         <v>133422</v>
       </c>
     </row>
@@ -46177,7 +46217,7 @@
         <v>1183</v>
       </c>
       <c r="I177" s="8">
-        <f>H177*G177</f>
+        <f t="shared" si="2"/>
         <v>92274</v>
       </c>
     </row>
@@ -46207,7 +46247,7 @@
         <v>1758</v>
       </c>
       <c r="I178" s="8">
-        <f>H178*G178</f>
+        <f t="shared" si="2"/>
         <v>103722</v>
       </c>
     </row>
@@ -46237,7 +46277,7 @@
         <v>655</v>
       </c>
       <c r="I179" s="8">
-        <f>H179*G179</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -46267,7 +46307,7 @@
         <v>6557</v>
       </c>
       <c r="I180" s="8">
-        <f>H180*G180</f>
+        <f t="shared" si="2"/>
         <v>380306</v>
       </c>
     </row>
@@ -46297,7 +46337,7 @@
         <v>13934</v>
       </c>
       <c r="I181" s="8">
-        <f>H181*G181</f>
+        <f t="shared" si="2"/>
         <v>1198324</v>
       </c>
     </row>
@@ -46327,7 +46367,7 @@
         <v>1647</v>
       </c>
       <c r="I182" s="8">
-        <f>H182*G182</f>
+        <f t="shared" si="2"/>
         <v>93879</v>
       </c>
     </row>
@@ -46357,7 +46397,7 @@
         <v>327</v>
       </c>
       <c r="I183" s="8">
-        <f>H183*G183</f>
+        <f t="shared" si="2"/>
         <v>16677</v>
       </c>
     </row>
@@ -46387,7 +46427,7 @@
         <v>651</v>
       </c>
       <c r="I184" s="8">
-        <f>H184*G184</f>
+        <f t="shared" si="2"/>
         <v>50127</v>
       </c>
     </row>
@@ -46417,7 +46457,7 @@
         <v>983</v>
       </c>
       <c r="I185" s="8">
-        <f>H185*G185</f>
+        <f t="shared" si="2"/>
         <v>84538</v>
       </c>
     </row>
@@ -46447,7 +46487,7 @@
         <v>1639</v>
       </c>
       <c r="I186" s="8">
-        <f>H186*G186</f>
+        <f t="shared" si="2"/>
         <v>111452</v>
       </c>
     </row>
@@ -46477,7 +46517,7 @@
         <v>1844</v>
       </c>
       <c r="I187" s="8">
-        <f>H187*G187</f>
+        <f t="shared" si="2"/>
         <v>173336</v>
       </c>
     </row>
@@ -46507,7 +46547,7 @@
         <v>409</v>
       </c>
       <c r="I188" s="8">
-        <f>H188*G188</f>
+        <f t="shared" si="2"/>
         <v>29039</v>
       </c>
     </row>
@@ -46537,7 +46577,7 @@
         <v>295</v>
       </c>
       <c r="I189" s="8">
-        <f>H189*G189</f>
+        <f t="shared" si="2"/>
         <v>20355</v>
       </c>
     </row>
@@ -46567,7 +46607,7 @@
         <v>587</v>
       </c>
       <c r="I190" s="8">
-        <f>H190*G190</f>
+        <f t="shared" si="2"/>
         <v>46373</v>
       </c>
     </row>
@@ -46597,7 +46637,7 @@
         <v>919</v>
       </c>
       <c r="I191" s="8">
-        <f>H191*G191</f>
+        <f t="shared" si="2"/>
         <v>83629</v>
       </c>
     </row>
@@ -46627,7 +46667,7 @@
         <v>491</v>
       </c>
       <c r="I192" s="8">
-        <f>H192*G192</f>
+        <f t="shared" si="2"/>
         <v>48609</v>
       </c>
     </row>
@@ -46657,7 +46697,7 @@
         <v>274</v>
       </c>
       <c r="I193" s="8">
-        <f>H193*G193</f>
+        <f t="shared" si="2"/>
         <v>26852</v>
       </c>
     </row>
@@ -46687,7 +46727,7 @@
         <v>524</v>
       </c>
       <c r="I194" s="8">
-        <f>H194*G194</f>
+        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
         <v>43492</v>
       </c>
     </row>
@@ -46717,7 +46757,7 @@
         <v>614</v>
       </c>
       <c r="I195" s="8">
-        <f>H195*G195</f>
+        <f t="shared" si="3"/>
         <v>34998</v>
       </c>
     </row>
@@ -46747,7 +46787,7 @@
         <v>341</v>
       </c>
       <c r="I196" s="8">
-        <f>H196*G196</f>
+        <f t="shared" si="3"/>
         <v>33759</v>
       </c>
     </row>
@@ -46777,7 +46817,7 @@
         <v>327</v>
       </c>
       <c r="I197" s="8">
-        <f>H197*G197</f>
+        <f t="shared" si="3"/>
         <v>27468</v>
       </c>
     </row>
@@ -46807,7 +46847,7 @@
         <v>368</v>
       </c>
       <c r="I198" s="8">
-        <f>H198*G198</f>
+        <f t="shared" si="3"/>
         <v>29440</v>
       </c>
     </row>
@@ -46837,7 +46877,7 @@
         <v>1465</v>
       </c>
       <c r="I199" s="8">
-        <f>H199*G199</f>
+        <f t="shared" si="3"/>
         <v>80575</v>
       </c>
     </row>
@@ -46867,7 +46907,7 @@
         <v>651</v>
       </c>
       <c r="I200" s="8">
-        <f>H200*G200</f>
+        <f t="shared" si="3"/>
         <v>46221</v>
       </c>
     </row>
@@ -46897,7 +46937,7 @@
         <v>1803</v>
       </c>
       <c r="I201" s="8">
-        <f>H201*G201</f>
+        <f t="shared" si="3"/>
         <v>124407</v>
       </c>
     </row>
@@ -46927,7 +46967,7 @@
         <v>2213</v>
       </c>
       <c r="I202" s="8">
-        <f>H202*G202</f>
+        <f t="shared" si="3"/>
         <v>148271</v>
       </c>
     </row>
@@ -46957,7 +46997,7 @@
         <v>573</v>
       </c>
       <c r="I203" s="8">
-        <f>H203*G203</f>
+        <f t="shared" si="3"/>
         <v>46986</v>
       </c>
     </row>
@@ -46987,7 +47027,7 @@
         <v>1696</v>
       </c>
       <c r="I204" s="8">
-        <f>H204*G204</f>
+        <f t="shared" si="3"/>
         <v>115328</v>
       </c>
     </row>
@@ -47017,7 +47057,7 @@
         <v>6557</v>
       </c>
       <c r="I205" s="8">
-        <f>H205*G205</f>
+        <f t="shared" si="3"/>
         <v>557345</v>
       </c>
     </row>
@@ -47047,7 +47087,7 @@
         <v>2459</v>
       </c>
       <c r="I206" s="8">
-        <f>H206*G206</f>
+        <f t="shared" si="3"/>
         <v>199179</v>
       </c>
     </row>
@@ -47077,7 +47117,7 @@
         <v>6557</v>
       </c>
       <c r="I207" s="8">
-        <f>H207*G207</f>
+        <f t="shared" si="3"/>
         <v>596687</v>
       </c>
     </row>
@@ -47107,7 +47147,7 @@
         <v>2065</v>
       </c>
       <c r="I208" s="8">
-        <f>H208*G208</f>
+        <f t="shared" si="3"/>
         <v>117705</v>
       </c>
     </row>
@@ -47137,7 +47177,7 @@
         <v>384</v>
       </c>
       <c r="I209" s="8">
-        <f>H209*G209</f>
+        <f t="shared" si="3"/>
         <v>34560</v>
       </c>
     </row>
@@ -47167,7 +47207,7 @@
         <v>368</v>
       </c>
       <c r="I210" s="8">
-        <f>H210*G210</f>
+        <f t="shared" si="3"/>
         <v>22080</v>
       </c>
     </row>
@@ -47197,7 +47237,7 @@
         <v>549</v>
       </c>
       <c r="I211" s="8">
-        <f>H211*G211</f>
+        <f t="shared" si="3"/>
         <v>53802</v>
       </c>
     </row>
@@ -47227,7 +47267,7 @@
         <v>591</v>
       </c>
       <c r="I212" s="8">
-        <f>H212*G212</f>
+        <f t="shared" si="3"/>
         <v>50826</v>
       </c>
     </row>
@@ -47257,7 +47297,7 @@
         <v>1844</v>
       </c>
       <c r="I213" s="8">
-        <f>H213*G213</f>
+        <f t="shared" si="3"/>
         <v>106952</v>
       </c>
     </row>
@@ -47287,7 +47327,7 @@
         <v>409</v>
       </c>
       <c r="I214" s="8">
-        <f>H214*G214</f>
+        <f t="shared" si="3"/>
         <v>20450</v>
       </c>
     </row>
@@ -47317,7 +47357,7 @@
         <v>555</v>
       </c>
       <c r="I215" s="8">
-        <f>H215*G215</f>
+        <f t="shared" si="3"/>
         <v>54945</v>
       </c>
     </row>
@@ -47347,7 +47387,7 @@
         <v>1844</v>
       </c>
       <c r="I216" s="8">
-        <f>H216*G216</f>
+        <f t="shared" si="3"/>
         <v>160428</v>
       </c>
     </row>
@@ -47377,7 +47417,7 @@
         <v>8240</v>
       </c>
       <c r="I217" s="8">
-        <f>H217*G217</f>
+        <f t="shared" si="3"/>
         <v>461440</v>
       </c>
     </row>
@@ -47407,7 +47447,7 @@
         <v>5327</v>
       </c>
       <c r="I218" s="8">
-        <f>H218*G218</f>
+        <f t="shared" si="3"/>
         <v>362236</v>
       </c>
     </row>
@@ -47437,7 +47477,7 @@
         <v>1549</v>
       </c>
       <c r="I219" s="8">
-        <f>H219*G219</f>
+        <f t="shared" si="3"/>
         <v>151802</v>
       </c>
     </row>
@@ -47467,7 +47507,7 @@
         <v>295</v>
       </c>
       <c r="I220" s="8">
-        <f>H220*G220</f>
+        <f t="shared" si="3"/>
         <v>19470</v>
       </c>
     </row>
@@ -47497,7 +47537,7 @@
         <v>327</v>
       </c>
       <c r="I221" s="8">
-        <f>H221*G221</f>
+        <f t="shared" si="3"/>
         <v>22563</v>
       </c>
     </row>
@@ -47527,7 +47567,7 @@
         <v>311</v>
       </c>
       <c r="I222" s="8">
-        <f>H222*G222</f>
+        <f t="shared" si="3"/>
         <v>27368</v>
       </c>
     </row>
@@ -47557,7 +47597,7 @@
         <v>450</v>
       </c>
       <c r="I223" s="8">
-        <f>H223*G223</f>
+        <f t="shared" si="3"/>
         <v>32400</v>
       </c>
     </row>
@@ -47587,7 +47627,7 @@
         <v>524</v>
       </c>
       <c r="I224" s="8">
-        <f>H224*G224</f>
+        <f t="shared" si="3"/>
         <v>44016</v>
       </c>
     </row>
@@ -47617,7 +47657,7 @@
         <v>311</v>
       </c>
       <c r="I225" s="8">
-        <f>H225*G225</f>
+        <f t="shared" si="3"/>
         <v>21459</v>
       </c>
     </row>
@@ -47647,7 +47687,7 @@
         <v>1721</v>
       </c>
       <c r="I226" s="8">
-        <f>H226*G226</f>
+        <f t="shared" si="3"/>
         <v>148006</v>
       </c>
     </row>
@@ -47677,7 +47717,7 @@
         <v>1434</v>
       </c>
       <c r="I227" s="8">
-        <f>H227*G227</f>
+        <f t="shared" si="3"/>
         <v>93210</v>
       </c>
     </row>
@@ -47707,7 +47747,7 @@
         <v>1885</v>
       </c>
       <c r="I228" s="8">
-        <f>H228*G228</f>
+        <f t="shared" si="3"/>
         <v>152685</v>
       </c>
     </row>
@@ -47737,7 +47777,7 @@
         <v>515</v>
       </c>
       <c r="I229" s="8">
-        <f>H229*G229</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
     </row>
@@ -47767,7 +47807,7 @@
         <v>591</v>
       </c>
       <c r="I230" s="8">
-        <f>H230*G230</f>
+        <f t="shared" si="3"/>
         <v>54963</v>
       </c>
     </row>
@@ -47797,7 +47837,7 @@
         <v>9016</v>
       </c>
       <c r="I231" s="8">
-        <f>H231*G231</f>
+        <f t="shared" si="3"/>
         <v>549976</v>
       </c>
     </row>
@@ -47827,7 +47867,7 @@
         <v>491</v>
       </c>
       <c r="I232" s="8">
-        <f>H232*G232</f>
+        <f t="shared" si="3"/>
         <v>47136</v>
       </c>
     </row>
@@ -47857,7 +47897,7 @@
         <v>1639</v>
       </c>
       <c r="I233" s="8">
-        <f>H233*G233</f>
+        <f t="shared" si="3"/>
         <v>113091</v>
       </c>
     </row>
@@ -48152,7 +48192,7 @@
       <c r="A1" t="s">
         <v>1409</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -48203,7 +48243,7 @@
         <v>500</v>
       </c>
       <c r="I2" s="9">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I65" si="0">H2*G2</f>
         <v>25500</v>
       </c>
     </row>
@@ -48233,7 +48273,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9">
-        <f>H3*G3</f>
+        <f t="shared" si="0"/>
         <v>91000</v>
       </c>
     </row>
@@ -48263,7 +48303,7 @@
         <v>1500</v>
       </c>
       <c r="I4" s="9">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>129000</v>
       </c>
     </row>
@@ -48293,7 +48333,7 @@
         <v>1500</v>
       </c>
       <c r="I5" s="9">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -48323,7 +48363,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="9">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>148000</v>
       </c>
     </row>
@@ -48353,7 +48393,7 @@
         <v>1500</v>
       </c>
       <c r="I7" s="9">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>87000</v>
       </c>
     </row>
@@ -48383,7 +48423,7 @@
         <v>700</v>
       </c>
       <c r="I8" s="9">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>56700</v>
       </c>
     </row>
@@ -48413,7 +48453,7 @@
         <v>700</v>
       </c>
       <c r="I9" s="9">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>67900</v>
       </c>
     </row>
@@ -48443,7 +48483,7 @@
         <v>2500</v>
       </c>
       <c r="I10" s="9">
-        <f>H10*G10</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
@@ -48473,7 +48513,7 @@
         <v>700</v>
       </c>
       <c r="I11" s="9">
-        <f>H11*G11</f>
+        <f t="shared" si="0"/>
         <v>66500</v>
       </c>
     </row>
@@ -48503,7 +48543,7 @@
         <v>1500</v>
       </c>
       <c r="I12" s="9">
-        <f>H12*G12</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -48533,7 +48573,7 @@
         <v>2500</v>
       </c>
       <c r="I13" s="9">
-        <f>H13*G13</f>
+        <f t="shared" si="0"/>
         <v>170000</v>
       </c>
     </row>
@@ -48563,7 +48603,7 @@
         <v>500</v>
       </c>
       <c r="I14" s="9">
-        <f>H14*G14</f>
+        <f t="shared" si="0"/>
         <v>49000</v>
       </c>
     </row>
@@ -48593,7 +48633,7 @@
         <v>1500</v>
       </c>
       <c r="I15" s="9">
-        <f>H15*G15</f>
+        <f t="shared" si="0"/>
         <v>76500</v>
       </c>
     </row>
@@ -48623,7 +48663,7 @@
         <v>12000</v>
       </c>
       <c r="I16" s="9">
-        <f>H16*G16</f>
+        <f t="shared" si="0"/>
         <v>900000</v>
       </c>
     </row>
@@ -48653,7 +48693,7 @@
         <v>12000</v>
       </c>
       <c r="I17" s="9">
-        <f>H17*G17</f>
+        <f t="shared" si="0"/>
         <v>696000</v>
       </c>
     </row>
@@ -48683,7 +48723,7 @@
         <v>800</v>
       </c>
       <c r="I18" s="9">
-        <f>H18*G18</f>
+        <f t="shared" si="0"/>
         <v>44000</v>
       </c>
     </row>
@@ -48713,7 +48753,7 @@
         <v>1000</v>
       </c>
       <c r="I19" s="9">
-        <f>H19*G19</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
@@ -48743,7 +48783,7 @@
         <v>2500</v>
       </c>
       <c r="I20" s="9">
-        <f>H20*G20</f>
+        <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
@@ -48773,7 +48813,7 @@
         <v>1000</v>
       </c>
       <c r="I21" s="9">
-        <f>H21*G21</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
     </row>
@@ -48803,7 +48843,7 @@
         <v>1200</v>
       </c>
       <c r="I22" s="9">
-        <f>H22*G22</f>
+        <f t="shared" si="0"/>
         <v>85200</v>
       </c>
     </row>
@@ -48833,7 +48873,7 @@
         <v>1800</v>
       </c>
       <c r="I23" s="9">
-        <f>H23*G23</f>
+        <f t="shared" si="0"/>
         <v>171000</v>
       </c>
     </row>
@@ -48863,7 +48903,7 @@
         <v>1500</v>
       </c>
       <c r="I24" s="9">
-        <f>H24*G24</f>
+        <f t="shared" si="0"/>
         <v>145500</v>
       </c>
     </row>
@@ -48893,7 +48933,7 @@
         <v>700</v>
       </c>
       <c r="I25" s="9">
-        <f>H25*G25</f>
+        <f t="shared" si="0"/>
         <v>44100</v>
       </c>
     </row>
@@ -48923,7 +48963,7 @@
         <v>1500</v>
       </c>
       <c r="I26" s="9">
-        <f>H26*G26</f>
+        <f t="shared" si="0"/>
         <v>78000</v>
       </c>
     </row>
@@ -48953,7 +48993,7 @@
         <v>1500</v>
       </c>
       <c r="I27" s="9">
-        <f>H27*G27</f>
+        <f t="shared" si="0"/>
         <v>88500</v>
       </c>
     </row>
@@ -48983,7 +49023,7 @@
         <v>500</v>
       </c>
       <c r="I28" s="9">
-        <f>H28*G28</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -49013,7 +49053,7 @@
         <v>700</v>
       </c>
       <c r="I29" s="9">
-        <f>H29*G29</f>
+        <f t="shared" si="0"/>
         <v>46900</v>
       </c>
     </row>
@@ -49043,7 +49083,7 @@
         <v>2500</v>
       </c>
       <c r="I30" s="9">
-        <f>H30*G30</f>
+        <f t="shared" si="0"/>
         <v>202500</v>
       </c>
     </row>
@@ -49073,7 +49113,7 @@
         <v>2000</v>
       </c>
       <c r="I31" s="9">
-        <f>H31*G31</f>
+        <f t="shared" si="0"/>
         <v>124000</v>
       </c>
     </row>
@@ -49103,7 +49143,7 @@
         <v>1500</v>
       </c>
       <c r="I32" s="9">
-        <f>H32*G32</f>
+        <f t="shared" si="0"/>
         <v>126000</v>
       </c>
     </row>
@@ -49133,7 +49173,7 @@
         <v>1500</v>
       </c>
       <c r="I33" s="9">
-        <f>H33*G33</f>
+        <f t="shared" si="0"/>
         <v>135000</v>
       </c>
     </row>
@@ -49163,7 +49203,7 @@
         <v>1000</v>
       </c>
       <c r="I34" s="9">
-        <f>H34*G34</f>
+        <f t="shared" si="0"/>
         <v>57000</v>
       </c>
     </row>
@@ -49193,7 +49233,7 @@
         <v>1500</v>
       </c>
       <c r="I35" s="9">
-        <f>H35*G35</f>
+        <f t="shared" si="0"/>
         <v>91500</v>
       </c>
     </row>
@@ -49223,7 +49263,7 @@
         <v>10000</v>
       </c>
       <c r="I36" s="9">
-        <f>H36*G36</f>
+        <f t="shared" si="0"/>
         <v>680000</v>
       </c>
     </row>
@@ -49253,7 +49293,7 @@
         <v>900</v>
       </c>
       <c r="I37" s="9">
-        <f>H37*G37</f>
+        <f t="shared" si="0"/>
         <v>68400</v>
       </c>
     </row>
@@ -49283,7 +49323,7 @@
         <v>1500</v>
       </c>
       <c r="I38" s="9">
-        <f>H38*G38</f>
+        <f t="shared" si="0"/>
         <v>94500</v>
       </c>
     </row>
@@ -49313,7 +49353,7 @@
         <v>3000</v>
       </c>
       <c r="I39" s="9">
-        <f>H39*G39</f>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
@@ -49343,7 +49383,7 @@
         <v>3000</v>
       </c>
       <c r="I40" s="9">
-        <f>H40*G40</f>
+        <f t="shared" si="0"/>
         <v>204000</v>
       </c>
     </row>
@@ -49373,7 +49413,7 @@
         <v>2000</v>
       </c>
       <c r="I41" s="9">
-        <f>H41*G41</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
@@ -49403,7 +49443,7 @@
         <v>700</v>
       </c>
       <c r="I42" s="9">
-        <f>H42*G42</f>
+        <f t="shared" si="0"/>
         <v>59500</v>
       </c>
     </row>
@@ -49433,7 +49473,7 @@
         <v>2000</v>
       </c>
       <c r="I43" s="9">
-        <f>H43*G43</f>
+        <f t="shared" si="0"/>
         <v>106000</v>
       </c>
     </row>
@@ -49463,7 +49503,7 @@
         <v>1500</v>
       </c>
       <c r="I44" s="9">
-        <f>H44*G44</f>
+        <f t="shared" si="0"/>
         <v>108000</v>
       </c>
     </row>
@@ -49493,7 +49533,7 @@
         <v>1500</v>
       </c>
       <c r="I45" s="9">
-        <f>H45*G45</f>
+        <f t="shared" si="0"/>
         <v>103500</v>
       </c>
     </row>
@@ -49523,7 +49563,7 @@
         <v>500</v>
       </c>
       <c r="I46" s="9">
-        <f>H46*G46</f>
+        <f t="shared" si="0"/>
         <v>49500</v>
       </c>
     </row>
@@ -49553,7 +49593,7 @@
         <v>1000</v>
       </c>
       <c r="I47" s="9">
-        <f>H47*G47</f>
+        <f t="shared" si="0"/>
         <v>73000</v>
       </c>
     </row>
@@ -49583,7 +49623,7 @@
         <v>1500</v>
       </c>
       <c r="I48" s="9">
-        <f>H48*G48</f>
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
@@ -49613,7 +49653,7 @@
         <v>1500</v>
       </c>
       <c r="I49" s="9">
-        <f>H49*G49</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -49643,7 +49683,7 @@
         <v>2000</v>
       </c>
       <c r="I50" s="9">
-        <f>H50*G50</f>
+        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
@@ -49673,7 +49713,7 @@
         <v>2500</v>
       </c>
       <c r="I51" s="9">
-        <f>H51*G51</f>
+        <f t="shared" si="0"/>
         <v>190000</v>
       </c>
     </row>
@@ -49703,7 +49743,7 @@
         <v>1200</v>
       </c>
       <c r="I52" s="9">
-        <f>H52*G52</f>
+        <f t="shared" si="0"/>
         <v>82800</v>
       </c>
     </row>
@@ -49733,7 +49773,7 @@
         <v>3000</v>
       </c>
       <c r="I53" s="9">
-        <f>H53*G53</f>
+        <f t="shared" si="0"/>
         <v>291000</v>
       </c>
     </row>
@@ -49763,7 +49803,7 @@
         <v>5000</v>
       </c>
       <c r="I54" s="9">
-        <f>H54*G54</f>
+        <f t="shared" si="0"/>
         <v>285000</v>
       </c>
     </row>
@@ -49793,7 +49833,7 @@
         <v>700</v>
       </c>
       <c r="I55" s="9">
-        <f>H55*G55</f>
+        <f t="shared" si="0"/>
         <v>55300</v>
       </c>
     </row>
@@ -49823,7 +49863,7 @@
         <v>1500</v>
       </c>
       <c r="I56" s="9">
-        <f>H56*G56</f>
+        <f t="shared" si="0"/>
         <v>93000</v>
       </c>
     </row>
@@ -49853,7 +49893,7 @@
         <v>2000</v>
       </c>
       <c r="I57" s="9">
-        <f>H57*G57</f>
+        <f t="shared" si="0"/>
         <v>174000</v>
       </c>
     </row>
@@ -49883,7 +49923,7 @@
         <v>4500</v>
       </c>
       <c r="I58" s="9">
-        <f>H58*G58</f>
+        <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
@@ -49913,7 +49953,7 @@
         <v>2300</v>
       </c>
       <c r="I59" s="9">
-        <f>H59*G59</f>
+        <f t="shared" si="0"/>
         <v>218500</v>
       </c>
     </row>
@@ -49943,7 +49983,7 @@
         <v>4000</v>
       </c>
       <c r="I60" s="9">
-        <f>H60*G60</f>
+        <f t="shared" si="0"/>
         <v>312000</v>
       </c>
     </row>
@@ -49973,7 +50013,7 @@
         <v>3000</v>
       </c>
       <c r="I61" s="9">
-        <f>H61*G61</f>
+        <f t="shared" si="0"/>
         <v>189000</v>
       </c>
     </row>
@@ -50003,7 +50043,7 @@
         <v>500</v>
       </c>
       <c r="I62" s="9">
-        <f>H62*G62</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -50033,7 +50073,7 @@
         <v>500</v>
       </c>
       <c r="I63" s="9">
-        <f>H63*G63</f>
+        <f t="shared" si="0"/>
         <v>47500</v>
       </c>
     </row>
@@ -50063,7 +50103,7 @@
         <v>1500</v>
       </c>
       <c r="I64" s="9">
-        <f>H64*G64</f>
+        <f t="shared" si="0"/>
         <v>102000</v>
       </c>
     </row>
@@ -50093,7 +50133,7 @@
         <v>1100</v>
       </c>
       <c r="I65" s="9">
-        <f>H65*G65</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -50123,7 +50163,7 @@
         <v>1000</v>
       </c>
       <c r="I66" s="9">
-        <f>H66*G66</f>
+        <f t="shared" ref="I66:I129" si="1">H66*G66</f>
         <v>70000</v>
       </c>
     </row>
@@ -50153,7 +50193,7 @@
         <v>1500</v>
       </c>
       <c r="I67" s="9">
-        <f>H67*G67</f>
+        <f t="shared" si="1"/>
         <v>142500</v>
       </c>
     </row>
@@ -50183,7 +50223,7 @@
         <v>500</v>
       </c>
       <c r="I68" s="9">
-        <f>H68*G68</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -50213,7 +50253,7 @@
         <v>2300</v>
       </c>
       <c r="I69" s="9">
-        <f>H69*G69</f>
+        <f t="shared" si="1"/>
         <v>158700</v>
       </c>
     </row>
@@ -50243,7 +50283,7 @@
         <v>1500</v>
       </c>
       <c r="I70" s="9">
-        <f>H70*G70</f>
+        <f t="shared" si="1"/>
         <v>84000</v>
       </c>
     </row>
@@ -50273,7 +50313,7 @@
         <v>10000</v>
       </c>
       <c r="I71" s="9">
-        <f>H71*G71</f>
+        <f t="shared" si="1"/>
         <v>950000</v>
       </c>
     </row>
@@ -50303,7 +50343,7 @@
         <v>1300</v>
       </c>
       <c r="I72" s="9">
-        <f>H72*G72</f>
+        <f t="shared" si="1"/>
         <v>76700</v>
       </c>
     </row>
@@ -50333,7 +50373,7 @@
         <v>1500</v>
       </c>
       <c r="I73" s="9">
-        <f>H73*G73</f>
+        <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
@@ -50363,7 +50403,7 @@
         <v>1000</v>
       </c>
       <c r="I74" s="9">
-        <f>H74*G74</f>
+        <f t="shared" si="1"/>
         <v>70000</v>
       </c>
     </row>
@@ -50393,7 +50433,7 @@
         <v>1800</v>
       </c>
       <c r="I75" s="9">
-        <f>H75*G75</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -50423,7 +50463,7 @@
         <v>500</v>
       </c>
       <c r="I76" s="9">
-        <f>H76*G76</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -50453,7 +50493,7 @@
         <v>6000</v>
       </c>
       <c r="I77" s="9">
-        <f>H77*G77</f>
+        <f t="shared" si="1"/>
         <v>348000</v>
       </c>
     </row>
@@ -50483,7 +50523,7 @@
         <v>500</v>
       </c>
       <c r="I78" s="9">
-        <f>H78*G78</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
     </row>
@@ -50513,7 +50553,7 @@
         <v>2500</v>
       </c>
       <c r="I79" s="9">
-        <f>H79*G79</f>
+        <f t="shared" si="1"/>
         <v>195000</v>
       </c>
     </row>
@@ -50543,7 +50583,7 @@
         <v>2800</v>
       </c>
       <c r="I80" s="9">
-        <f>H80*G80</f>
+        <f t="shared" si="1"/>
         <v>184800</v>
       </c>
     </row>
@@ -50573,7 +50613,7 @@
         <v>3800</v>
       </c>
       <c r="I81" s="9">
-        <f>H81*G81</f>
+        <f t="shared" si="1"/>
         <v>380000</v>
       </c>
     </row>
@@ -50603,7 +50643,7 @@
         <v>500</v>
       </c>
       <c r="I82" s="9">
-        <f>H82*G82</f>
+        <f t="shared" si="1"/>
         <v>28000</v>
       </c>
     </row>
@@ -50633,7 +50673,7 @@
         <v>2500</v>
       </c>
       <c r="I83" s="9">
-        <f>H83*G83</f>
+        <f t="shared" si="1"/>
         <v>197500</v>
       </c>
     </row>
@@ -50663,7 +50703,7 @@
         <v>4000</v>
       </c>
       <c r="I84" s="9">
-        <f>H84*G84</f>
+        <f t="shared" si="1"/>
         <v>316000</v>
       </c>
     </row>
@@ -50693,7 +50733,7 @@
         <v>800</v>
       </c>
       <c r="I85" s="9">
-        <f>H85*G85</f>
+        <f t="shared" si="1"/>
         <v>79200</v>
       </c>
     </row>
@@ -50723,7 +50763,7 @@
         <v>2500</v>
       </c>
       <c r="I86" s="9">
-        <f>H86*G86</f>
+        <f t="shared" si="1"/>
         <v>202500</v>
       </c>
     </row>
@@ -50753,7 +50793,7 @@
         <v>2500</v>
       </c>
       <c r="I87" s="9">
-        <f>H87*G87</f>
+        <f t="shared" si="1"/>
         <v>192500</v>
       </c>
     </row>
@@ -50783,7 +50823,7 @@
         <v>1500</v>
       </c>
       <c r="I88" s="9">
-        <f>H88*G88</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -50813,7 +50853,7 @@
         <v>1500</v>
       </c>
       <c r="I89" s="9">
-        <f>H89*G89</f>
+        <f t="shared" si="1"/>
         <v>115500</v>
       </c>
     </row>
@@ -50843,7 +50883,7 @@
         <v>700</v>
       </c>
       <c r="I90" s="9">
-        <f>H90*G90</f>
+        <f t="shared" si="1"/>
         <v>37100</v>
       </c>
     </row>
@@ -50873,7 +50913,7 @@
         <v>2000</v>
       </c>
       <c r="I91" s="9">
-        <f>H91*G91</f>
+        <f t="shared" si="1"/>
         <v>182000</v>
       </c>
     </row>
@@ -50903,7 +50943,7 @@
         <v>1000</v>
       </c>
       <c r="I92" s="9">
-        <f>H92*G92</f>
+        <f t="shared" si="1"/>
         <v>55000</v>
       </c>
     </row>
@@ -50933,7 +50973,7 @@
         <v>1000</v>
       </c>
       <c r="I93" s="9">
-        <f>H93*G93</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -50963,7 +51003,7 @@
         <v>700</v>
       </c>
       <c r="I94" s="9">
-        <f>H94*G94</f>
+        <f t="shared" si="1"/>
         <v>46200</v>
       </c>
     </row>
@@ -50993,7 +51033,7 @@
         <v>1500</v>
       </c>
       <c r="I95" s="9">
-        <f>H95*G95</f>
+        <f t="shared" si="1"/>
         <v>79500</v>
       </c>
     </row>
@@ -51023,7 +51063,7 @@
         <v>1000</v>
       </c>
       <c r="I96" s="9">
-        <f>H96*G96</f>
+        <f t="shared" si="1"/>
         <v>97000</v>
       </c>
     </row>
@@ -51053,7 +51093,7 @@
         <v>12000</v>
       </c>
       <c r="I97" s="9">
-        <f>H97*G97</f>
+        <f t="shared" si="1"/>
         <v>780000</v>
       </c>
     </row>
@@ -51083,7 +51123,7 @@
         <v>1000</v>
       </c>
       <c r="I98" s="9">
-        <f>H98*G98</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -51113,7 +51153,7 @@
         <v>500</v>
       </c>
       <c r="I99" s="9">
-        <f>H99*G99</f>
+        <f t="shared" si="1"/>
         <v>44500</v>
       </c>
     </row>
@@ -51143,7 +51183,7 @@
         <v>900</v>
       </c>
       <c r="I100" s="9">
-        <f>H100*G100</f>
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
     </row>
@@ -51173,7 +51213,7 @@
         <v>3000</v>
       </c>
       <c r="I101" s="9">
-        <f>H101*G101</f>
+        <f t="shared" si="1"/>
         <v>204000</v>
       </c>
     </row>
@@ -51203,7 +51243,7 @@
         <v>1100</v>
       </c>
       <c r="I102" s="9">
-        <f>H102*G102</f>
+        <f t="shared" si="1"/>
         <v>66000</v>
       </c>
     </row>
@@ -51233,7 +51273,7 @@
         <v>13000</v>
       </c>
       <c r="I103" s="9">
-        <f>H103*G103</f>
+        <f t="shared" si="1"/>
         <v>650000</v>
       </c>
     </row>
@@ -51263,7 +51303,7 @@
         <v>900</v>
       </c>
       <c r="I104" s="9">
-        <f>H104*G104</f>
+        <f t="shared" si="1"/>
         <v>53100</v>
       </c>
     </row>
@@ -51293,7 +51333,7 @@
         <v>2000</v>
       </c>
       <c r="I105" s="9">
-        <f>H105*G105</f>
+        <f t="shared" si="1"/>
         <v>104000</v>
       </c>
     </row>
@@ -51323,7 +51363,7 @@
         <v>1000</v>
       </c>
       <c r="I106" s="9">
-        <f>H106*G106</f>
+        <f t="shared" si="1"/>
         <v>54000</v>
       </c>
     </row>
@@ -51353,7 +51393,7 @@
         <v>1500</v>
       </c>
       <c r="I107" s="9">
-        <f>H107*G107</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -51383,7 +51423,7 @@
         <v>3000</v>
       </c>
       <c r="I108" s="9">
-        <f>H108*G108</f>
+        <f t="shared" si="1"/>
         <v>279000</v>
       </c>
     </row>
@@ -51413,7 +51453,7 @@
         <v>800</v>
       </c>
       <c r="I109" s="9">
-        <f>H109*G109</f>
+        <f t="shared" si="1"/>
         <v>43200</v>
       </c>
     </row>
@@ -51443,7 +51483,7 @@
         <v>5000</v>
       </c>
       <c r="I110" s="9">
-        <f>H110*G110</f>
+        <f t="shared" si="1"/>
         <v>305000</v>
       </c>
     </row>
@@ -51473,7 +51513,7 @@
         <v>1200</v>
       </c>
       <c r="I111" s="9">
-        <f>H111*G111</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -51503,7 +51543,7 @@
         <v>800</v>
       </c>
       <c r="I112" s="9">
-        <f>H112*G112</f>
+        <f t="shared" si="1"/>
         <v>56000</v>
       </c>
     </row>
@@ -51533,7 +51573,7 @@
         <v>2500</v>
       </c>
       <c r="I113" s="9">
-        <f>H113*G113</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -51563,7 +51603,7 @@
         <v>2500</v>
       </c>
       <c r="I114" s="9">
-        <f>H114*G114</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
@@ -51593,7 +51633,7 @@
         <v>1500</v>
       </c>
       <c r="I115" s="9">
-        <f>H115*G115</f>
+        <f t="shared" si="1"/>
         <v>141000</v>
       </c>
     </row>
@@ -51623,7 +51663,7 @@
         <v>2500</v>
       </c>
       <c r="I116" s="9">
-        <f>H116*G116</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -51653,7 +51693,7 @@
         <v>1500</v>
       </c>
       <c r="I117" s="9">
-        <f>H117*G117</f>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
@@ -51683,7 +51723,7 @@
         <v>500</v>
       </c>
       <c r="I118" s="9">
-        <f>H118*G118</f>
+        <f t="shared" si="1"/>
         <v>47000</v>
       </c>
     </row>
@@ -51713,7 +51753,7 @@
         <v>1000</v>
       </c>
       <c r="I119" s="9">
-        <f>H119*G119</f>
+        <f t="shared" si="1"/>
         <v>74000</v>
       </c>
     </row>
@@ -51743,7 +51783,7 @@
         <v>2500</v>
       </c>
       <c r="I120" s="9">
-        <f>H120*G120</f>
+        <f t="shared" si="1"/>
         <v>187500</v>
       </c>
     </row>
@@ -51773,7 +51813,7 @@
         <v>1800</v>
       </c>
       <c r="I121" s="9">
-        <f>H121*G121</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -51803,7 +51843,7 @@
         <v>1000</v>
       </c>
       <c r="I122" s="9">
-        <f>H122*G122</f>
+        <f t="shared" si="1"/>
         <v>87000</v>
       </c>
     </row>
@@ -51833,7 +51873,7 @@
         <v>9000</v>
       </c>
       <c r="I123" s="9">
-        <f>H123*G123</f>
+        <f t="shared" si="1"/>
         <v>468000</v>
       </c>
     </row>
@@ -51863,7 +51903,7 @@
         <v>2000</v>
       </c>
       <c r="I124" s="9">
-        <f>H124*G124</f>
+        <f t="shared" si="1"/>
         <v>128000</v>
       </c>
     </row>
@@ -51893,7 +51933,7 @@
         <v>600</v>
       </c>
       <c r="I125" s="9">
-        <f>H125*G125</f>
+        <f t="shared" si="1"/>
         <v>42600</v>
       </c>
     </row>
@@ -51923,7 +51963,7 @@
         <v>1500</v>
       </c>
       <c r="I126" s="9">
-        <f>H126*G126</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -51953,7 +51993,7 @@
         <v>2000</v>
       </c>
       <c r="I127" s="9">
-        <f>H127*G127</f>
+        <f t="shared" si="1"/>
         <v>156000</v>
       </c>
     </row>
@@ -51983,7 +52023,7 @@
         <v>800</v>
       </c>
       <c r="I128" s="9">
-        <f>H128*G128</f>
+        <f t="shared" si="1"/>
         <v>58400</v>
       </c>
     </row>
@@ -52013,7 +52053,7 @@
         <v>1200</v>
       </c>
       <c r="I129" s="9">
-        <f>H129*G129</f>
+        <f t="shared" si="1"/>
         <v>87600</v>
       </c>
     </row>
@@ -52043,7 +52083,7 @@
         <v>5500</v>
       </c>
       <c r="I130" s="9">
-        <f>H130*G130</f>
+        <f t="shared" ref="I130:I193" si="2">H130*G130</f>
         <v>352000</v>
       </c>
     </row>
@@ -52073,7 +52113,7 @@
         <v>1000</v>
       </c>
       <c r="I131" s="9">
-        <f>H131*G131</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -52103,7 +52143,7 @@
         <v>1000</v>
       </c>
       <c r="I132" s="9">
-        <f>H132*G132</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -52133,7 +52173,7 @@
         <v>2000</v>
       </c>
       <c r="I133" s="9">
-        <f>H133*G133</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -52163,7 +52203,7 @@
         <v>800</v>
       </c>
       <c r="I134" s="9">
-        <f>H134*G134</f>
+        <f t="shared" si="2"/>
         <v>68800</v>
       </c>
     </row>
@@ -52193,7 +52233,7 @@
         <v>1200</v>
       </c>
       <c r="I135" s="9">
-        <f>H135*G135</f>
+        <f t="shared" si="2"/>
         <v>61200</v>
       </c>
     </row>
@@ -52223,7 +52263,7 @@
         <v>2800</v>
       </c>
       <c r="I136" s="9">
-        <f>H136*G136</f>
+        <f t="shared" si="2"/>
         <v>263200</v>
       </c>
     </row>
@@ -52253,7 +52293,7 @@
         <v>1000</v>
       </c>
       <c r="I137" s="9">
-        <f>H137*G137</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
     </row>
@@ -52283,7 +52323,7 @@
         <v>5500</v>
       </c>
       <c r="I138" s="9">
-        <f>H138*G138</f>
+        <f t="shared" si="2"/>
         <v>390500</v>
       </c>
     </row>
@@ -52313,7 +52353,7 @@
         <v>900</v>
       </c>
       <c r="I139" s="9">
-        <f>H139*G139</f>
+        <f t="shared" si="2"/>
         <v>83700</v>
       </c>
     </row>
@@ -52343,7 +52383,7 @@
         <v>1000</v>
       </c>
       <c r="I140" s="9">
-        <f>H140*G140</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -52373,7 +52413,7 @@
         <v>2500</v>
       </c>
       <c r="I141" s="9">
-        <f>H141*G141</f>
+        <f t="shared" si="2"/>
         <v>242500</v>
       </c>
     </row>
@@ -52403,7 +52443,7 @@
         <v>8000</v>
       </c>
       <c r="I142" s="9">
-        <f>H142*G142</f>
+        <f t="shared" si="2"/>
         <v>576000</v>
       </c>
     </row>
@@ -52433,7 +52473,7 @@
         <v>2000</v>
       </c>
       <c r="I143" s="9">
-        <f>H143*G143</f>
+        <f t="shared" si="2"/>
         <v>146000</v>
       </c>
     </row>
@@ -52463,7 +52503,7 @@
         <v>1500</v>
       </c>
       <c r="I144" s="9">
-        <f>H144*G144</f>
+        <f t="shared" si="2"/>
         <v>133500</v>
       </c>
     </row>
@@ -52493,7 +52533,7 @@
         <v>1800</v>
       </c>
       <c r="I145" s="9">
-        <f>H145*G145</f>
+        <f t="shared" si="2"/>
         <v>147600</v>
       </c>
     </row>
@@ -52523,7 +52563,7 @@
         <v>500</v>
       </c>
       <c r="I146" s="9">
-        <f>H146*G146</f>
+        <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
@@ -52553,7 +52593,7 @@
         <v>1200</v>
       </c>
       <c r="I147" s="9">
-        <f>H147*G147</f>
+        <f t="shared" si="2"/>
         <v>73200</v>
       </c>
     </row>
@@ -52583,7 +52623,7 @@
         <v>2500</v>
       </c>
       <c r="I148" s="9">
-        <f>H148*G148</f>
+        <f t="shared" si="2"/>
         <v>237500</v>
       </c>
     </row>
@@ -52613,7 +52653,7 @@
         <v>600</v>
       </c>
       <c r="I149" s="9">
-        <f>H149*G149</f>
+        <f t="shared" si="2"/>
         <v>42000</v>
       </c>
     </row>
@@ -52643,7 +52683,7 @@
         <v>2500</v>
       </c>
       <c r="I150" s="9">
-        <f>H150*G150</f>
+        <f t="shared" si="2"/>
         <v>192500</v>
       </c>
     </row>
@@ -52673,7 +52713,7 @@
         <v>6000</v>
       </c>
       <c r="I151" s="9">
-        <f>H151*G151</f>
+        <f t="shared" si="2"/>
         <v>498000</v>
       </c>
     </row>
@@ -52703,7 +52743,7 @@
         <v>700</v>
       </c>
       <c r="I152" s="9">
-        <f>H152*G152</f>
+        <f t="shared" si="2"/>
         <v>50400</v>
       </c>
     </row>
@@ -52733,7 +52773,7 @@
         <v>1000</v>
       </c>
       <c r="I153" s="9">
-        <f>H153*G153</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -52763,7 +52803,7 @@
         <v>2500</v>
       </c>
       <c r="I154" s="9">
-        <f>H154*G154</f>
+        <f t="shared" si="2"/>
         <v>227500</v>
       </c>
     </row>
@@ -52793,7 +52833,7 @@
         <v>3000</v>
       </c>
       <c r="I155" s="9">
-        <f>H155*G155</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -52823,7 +52863,7 @@
         <v>3000</v>
       </c>
       <c r="I156" s="9">
-        <f>H156*G156</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -52853,7 +52893,7 @@
         <v>3000</v>
       </c>
       <c r="I157" s="9">
-        <f>H157*G157</f>
+        <f t="shared" si="2"/>
         <v>246000</v>
       </c>
     </row>
@@ -52883,7 +52923,7 @@
         <v>3000</v>
       </c>
       <c r="I158" s="9">
-        <f>H158*G158</f>
+        <f t="shared" si="2"/>
         <v>276000</v>
       </c>
     </row>
@@ -52913,7 +52953,7 @@
         <v>600</v>
       </c>
       <c r="I159" s="9">
-        <f>H159*G159</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -52943,7 +52983,7 @@
         <v>600</v>
       </c>
       <c r="I160" s="9">
-        <f>H160*G160</f>
+        <f t="shared" si="2"/>
         <v>30600</v>
       </c>
     </row>
@@ -52973,7 +53013,7 @@
         <v>1000</v>
       </c>
       <c r="I161" s="9">
-        <f>H161*G161</f>
+        <f t="shared" si="2"/>
         <v>83000</v>
       </c>
     </row>
@@ -53003,7 +53043,7 @@
         <v>2000</v>
       </c>
       <c r="I162" s="9">
-        <f>H162*G162</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -53033,7 +53073,7 @@
         <v>1800</v>
       </c>
       <c r="I163" s="9">
-        <f>H163*G163</f>
+        <f t="shared" si="2"/>
         <v>149400</v>
       </c>
     </row>
@@ -53063,7 +53103,7 @@
         <v>1800</v>
       </c>
       <c r="I164" s="9">
-        <f>H164*G164</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -53093,7 +53133,7 @@
         <v>600</v>
       </c>
       <c r="I165" s="9">
-        <f>H165*G165</f>
+        <f t="shared" si="2"/>
         <v>35400</v>
       </c>
     </row>
@@ -53123,7 +53163,7 @@
         <v>1000</v>
       </c>
       <c r="I166" s="9">
-        <f>H166*G166</f>
+        <f t="shared" si="2"/>
         <v>57000</v>
       </c>
     </row>
@@ -53153,7 +53193,7 @@
         <v>500</v>
       </c>
       <c r="I167" s="9">
-        <f>H167*G167</f>
+        <f t="shared" si="2"/>
         <v>41000</v>
       </c>
     </row>
@@ -53183,7 +53223,7 @@
         <v>2000</v>
       </c>
       <c r="I168" s="9">
-        <f>H168*G168</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -53213,7 +53253,7 @@
         <v>3000</v>
       </c>
       <c r="I169" s="9">
-        <f>H169*G169</f>
+        <f t="shared" si="2"/>
         <v>258000</v>
       </c>
     </row>
@@ -53243,7 +53283,7 @@
         <v>300</v>
       </c>
       <c r="I170" s="9">
-        <f>H170*G170</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
     </row>
@@ -53273,7 +53313,7 @@
         <v>20000</v>
       </c>
       <c r="I171" s="9">
-        <f>H171*G171</f>
+        <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
     </row>
@@ -53303,7 +53343,7 @@
         <v>12000</v>
       </c>
       <c r="I172" s="9">
-        <f>H172*G172</f>
+        <f t="shared" si="2"/>
         <v>1080000</v>
       </c>
     </row>
@@ -53333,7 +53373,7 @@
         <v>1000</v>
       </c>
       <c r="I173" s="9">
-        <f>H173*G173</f>
+        <f t="shared" si="2"/>
         <v>93000</v>
       </c>
     </row>
@@ -53363,7 +53403,7 @@
         <v>5000</v>
       </c>
       <c r="I174" s="9">
-        <f>H174*G174</f>
+        <f t="shared" si="2"/>
         <v>265000</v>
       </c>
     </row>
@@ -53393,7 +53433,7 @@
         <v>2500</v>
       </c>
       <c r="I175" s="9">
-        <f>H175*G175</f>
+        <f t="shared" si="2"/>
         <v>232500</v>
       </c>
     </row>
@@ -53423,7 +53463,7 @@
         <v>700</v>
       </c>
       <c r="I176" s="9">
-        <f>H176*G176</f>
+        <f t="shared" si="2"/>
         <v>65800</v>
       </c>
     </row>
@@ -53453,7 +53493,7 @@
         <v>800</v>
       </c>
       <c r="I177" s="9">
-        <f>H177*G177</f>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
@@ -53483,7 +53523,7 @@
         <v>1500</v>
       </c>
       <c r="I178" s="9">
-        <f>H178*G178</f>
+        <f t="shared" si="2"/>
         <v>142500</v>
       </c>
     </row>
@@ -53513,7 +53553,7 @@
         <v>1000</v>
       </c>
       <c r="I179" s="9">
-        <f>H179*G179</f>
+        <f t="shared" si="2"/>
         <v>52000</v>
       </c>
     </row>
@@ -53543,7 +53583,7 @@
         <v>4000</v>
       </c>
       <c r="I180" s="9">
-        <f>H180*G180</f>
+        <f t="shared" si="2"/>
         <v>212000</v>
       </c>
     </row>
@@ -53573,7 +53613,7 @@
         <v>2800</v>
       </c>
       <c r="I181" s="9">
-        <f>H181*G181</f>
+        <f t="shared" si="2"/>
         <v>232400</v>
       </c>
     </row>
@@ -53603,7 +53643,7 @@
         <v>1200</v>
       </c>
       <c r="I182" s="9">
-        <f>H182*G182</f>
+        <f t="shared" si="2"/>
         <v>116400</v>
       </c>
     </row>
@@ -53633,7 +53673,7 @@
         <v>2500</v>
       </c>
       <c r="I183" s="9">
-        <f>H183*G183</f>
+        <f t="shared" si="2"/>
         <v>147500</v>
       </c>
     </row>
@@ -53663,7 +53703,7 @@
         <v>1000</v>
       </c>
       <c r="I184" s="9">
-        <f>H184*G184</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -53693,7 +53733,7 @@
         <v>1500</v>
       </c>
       <c r="I185" s="9">
-        <f>H185*G185</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -53723,7 +53763,7 @@
         <v>1000</v>
       </c>
       <c r="I186" s="9">
-        <f>H186*G186</f>
+        <f t="shared" si="2"/>
         <v>97000</v>
       </c>
     </row>
@@ -53753,7 +53793,7 @@
         <v>1800</v>
       </c>
       <c r="I187" s="9">
-        <f>H187*G187</f>
+        <f t="shared" si="2"/>
         <v>171000</v>
       </c>
     </row>
@@ -53783,7 +53823,7 @@
         <v>2500</v>
       </c>
       <c r="I188" s="9">
-        <f>H188*G188</f>
+        <f t="shared" si="2"/>
         <v>160000</v>
       </c>
     </row>
@@ -53813,7 +53853,7 @@
         <v>500</v>
       </c>
       <c r="I189" s="9">
-        <f>H189*G189</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -53843,7 +53883,7 @@
         <v>1500</v>
       </c>
       <c r="I190" s="9">
-        <f>H190*G190</f>
+        <f t="shared" si="2"/>
         <v>112500</v>
       </c>
     </row>
@@ -53873,7 +53913,7 @@
         <v>1500</v>
       </c>
       <c r="I191" s="9">
-        <f>H191*G191</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -53903,7 +53943,7 @@
         <v>600</v>
       </c>
       <c r="I192" s="9">
-        <f>H192*G192</f>
+        <f t="shared" si="2"/>
         <v>39600</v>
       </c>
     </row>
@@ -53933,7 +53973,7 @@
         <v>1800</v>
       </c>
       <c r="I193" s="9">
-        <f>H193*G193</f>
+        <f t="shared" si="2"/>
         <v>99000</v>
       </c>
     </row>
@@ -53963,7 +54003,7 @@
         <v>4000</v>
       </c>
       <c r="I194" s="9">
-        <f>H194*G194</f>
+        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
         <v>340000</v>
       </c>
     </row>
@@ -53993,7 +54033,7 @@
         <v>1000</v>
       </c>
       <c r="I195" s="9">
-        <f>H195*G195</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -54023,7 +54063,7 @@
         <v>700</v>
       </c>
       <c r="I196" s="9">
-        <f>H196*G196</f>
+        <f t="shared" si="3"/>
         <v>59500</v>
       </c>
     </row>
@@ -54053,7 +54093,7 @@
         <v>800</v>
       </c>
       <c r="I197" s="9">
-        <f>H197*G197</f>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
     </row>
@@ -54083,7 +54123,7 @@
         <v>1000</v>
       </c>
       <c r="I198" s="9">
-        <f>H198*G198</f>
+        <f t="shared" si="3"/>
         <v>83000</v>
       </c>
     </row>
@@ -54113,7 +54153,7 @@
         <v>1500</v>
       </c>
       <c r="I199" s="9">
-        <f>H199*G199</f>
+        <f t="shared" si="3"/>
         <v>133500</v>
       </c>
     </row>
@@ -54143,7 +54183,7 @@
         <v>600</v>
       </c>
       <c r="I200" s="9">
-        <f>H200*G200</f>
+        <f t="shared" si="3"/>
         <v>43200</v>
       </c>
     </row>
@@ -54173,7 +54213,7 @@
         <v>500</v>
       </c>
       <c r="I201" s="9">
-        <f>H201*G201</f>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
     </row>
@@ -54203,7 +54243,7 @@
         <v>1500</v>
       </c>
       <c r="I202" s="9">
-        <f>H202*G202</f>
+        <f t="shared" si="3"/>
         <v>145500</v>
       </c>
     </row>
@@ -54233,7 +54273,7 @@
         <v>1000</v>
       </c>
       <c r="I203" s="9">
-        <f>H203*G203</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -54263,7 +54303,7 @@
         <v>1200</v>
       </c>
       <c r="I204" s="9">
-        <f>H204*G204</f>
+        <f t="shared" si="3"/>
         <v>114000</v>
       </c>
     </row>
@@ -54293,7 +54333,7 @@
         <v>2500</v>
       </c>
       <c r="I205" s="9">
-        <f>H205*G205</f>
+        <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
@@ -54323,7 +54363,7 @@
         <v>800</v>
       </c>
       <c r="I206" s="9">
-        <f>H206*G206</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -54353,7 +54393,7 @@
         <v>500</v>
       </c>
       <c r="I207" s="9">
-        <f>H207*G207</f>
+        <f t="shared" si="3"/>
         <v>46500</v>
       </c>
     </row>
@@ -54383,7 +54423,7 @@
         <v>2500</v>
       </c>
       <c r="I208" s="9">
-        <f>H208*G208</f>
+        <f t="shared" si="3"/>
         <v>132500</v>
       </c>
     </row>
@@ -54413,7 +54453,7 @@
         <v>1500</v>
       </c>
       <c r="I209" s="9">
-        <f>H209*G209</f>
+        <f t="shared" si="3"/>
         <v>129000</v>
       </c>
     </row>
@@ -54443,7 +54483,7 @@
         <v>18000</v>
       </c>
       <c r="I210" s="9">
-        <f>H210*G210</f>
+        <f t="shared" si="3"/>
         <v>1026000</v>
       </c>
     </row>
@@ -54473,7 +54513,7 @@
         <v>800</v>
       </c>
       <c r="I211" s="9">
-        <f>H211*G211</f>
+        <f t="shared" si="3"/>
         <v>75200</v>
       </c>
     </row>
@@ -54503,7 +54543,7 @@
         <v>500</v>
       </c>
       <c r="I212" s="9">
-        <f>H212*G212</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
     </row>
@@ -54533,7 +54573,7 @@
         <v>1200</v>
       </c>
       <c r="I213" s="9">
-        <f>H213*G213</f>
+        <f t="shared" si="3"/>
         <v>115200</v>
       </c>
     </row>
@@ -54563,7 +54603,7 @@
         <v>3000</v>
       </c>
       <c r="I214" s="9">
-        <f>H214*G214</f>
+        <f t="shared" si="3"/>
         <v>291000</v>
       </c>
     </row>
@@ -54593,7 +54633,7 @@
         <v>5000</v>
       </c>
       <c r="I215" s="9">
-        <f>H215*G215</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -54623,7 +54663,7 @@
         <v>700</v>
       </c>
       <c r="I216" s="9">
-        <f>H216*G216</f>
+        <f t="shared" si="3"/>
         <v>46200</v>
       </c>
     </row>
@@ -54653,7 +54693,7 @@
         <v>1300</v>
       </c>
       <c r="I217" s="9">
-        <f>H217*G217</f>
+        <f t="shared" si="3"/>
         <v>102700</v>
       </c>
     </row>
@@ -54683,7 +54723,7 @@
         <v>3000</v>
       </c>
       <c r="I218" s="9">
-        <f>H218*G218</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -54713,7 +54753,7 @@
         <v>7000</v>
       </c>
       <c r="I219" s="9">
-        <f>H219*G219</f>
+        <f t="shared" si="3"/>
         <v>357000</v>
       </c>
     </row>
@@ -54743,7 +54783,7 @@
         <v>1500</v>
       </c>
       <c r="I220" s="9">
-        <f>H220*G220</f>
+        <f t="shared" si="3"/>
         <v>123000</v>
       </c>
     </row>
@@ -54773,7 +54813,7 @@
         <v>2500</v>
       </c>
       <c r="I221" s="9">
-        <f>H221*G221</f>
+        <f t="shared" si="3"/>
         <v>155000</v>
       </c>
     </row>
@@ -54803,7 +54843,7 @@
         <v>700</v>
       </c>
       <c r="I222" s="9">
-        <f>H222*G222</f>
+        <f t="shared" si="3"/>
         <v>44100</v>
       </c>
     </row>
@@ -54833,7 +54873,7 @@
         <v>1000</v>
       </c>
       <c r="I223" s="9">
-        <f>H223*G223</f>
+        <f t="shared" si="3"/>
         <v>55000</v>
       </c>
     </row>
@@ -54863,7 +54903,7 @@
         <v>1000</v>
       </c>
       <c r="I224" s="9">
-        <f>H224*G224</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -54893,7 +54933,7 @@
         <v>1500</v>
       </c>
       <c r="I225" s="9">
-        <f>H225*G225</f>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
     </row>
@@ -54923,7 +54963,7 @@
         <v>3000</v>
       </c>
       <c r="I226" s="9">
-        <f>H226*G226</f>
+        <f t="shared" si="3"/>
         <v>177000</v>
       </c>
     </row>
@@ -54953,7 +54993,7 @@
         <v>1000</v>
       </c>
       <c r="I227" s="9">
-        <f>H227*G227</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -54983,7 +55023,7 @@
         <v>800</v>
       </c>
       <c r="I228" s="9">
-        <f>H228*G228</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -55013,7 +55053,7 @@
         <v>5000</v>
       </c>
       <c r="I229" s="9">
-        <f>H229*G229</f>
+        <f t="shared" si="3"/>
         <v>375000</v>
       </c>
     </row>
@@ -55043,7 +55083,7 @@
         <v>1000</v>
       </c>
       <c r="I230" s="9">
-        <f>H230*G230</f>
+        <f t="shared" si="3"/>
         <v>77000</v>
       </c>
     </row>
@@ -55073,7 +55113,7 @@
         <v>1500</v>
       </c>
       <c r="I231" s="9">
-        <f>H231*G231</f>
+        <f t="shared" si="3"/>
         <v>121500</v>
       </c>
     </row>
@@ -55103,7 +55143,7 @@
         <v>1500</v>
       </c>
       <c r="I232" s="9">
-        <f>H232*G232</f>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
@@ -55133,7 +55173,7 @@
         <v>1000</v>
       </c>
       <c r="I233" s="9">
-        <f>H233*G233</f>
+        <f t="shared" si="3"/>
         <v>97000</v>
       </c>
     </row>
@@ -55163,7 +55203,7 @@
         <v>1500</v>
       </c>
       <c r="I234" s="9">
-        <f>H234*G234</f>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
@@ -55193,7 +55233,7 @@
         <v>1200</v>
       </c>
       <c r="I235" s="9">
-        <f>H235*G235</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -55223,7 +55263,7 @@
         <v>2500</v>
       </c>
       <c r="I236" s="9">
-        <f>H236*G236</f>
+        <f t="shared" si="3"/>
         <v>205000</v>
       </c>
     </row>
@@ -55253,7 +55293,7 @@
         <v>1300</v>
       </c>
       <c r="I237" s="9">
-        <f>H237*G237</f>
+        <f t="shared" si="3"/>
         <v>80600</v>
       </c>
     </row>
@@ -55283,7 +55323,7 @@
         <v>600</v>
       </c>
       <c r="I238" s="9">
-        <f>H238*G238</f>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
@@ -55313,7 +55353,7 @@
         <v>1500</v>
       </c>
       <c r="I239" s="9">
-        <f>H239*G239</f>
+        <f t="shared" si="3"/>
         <v>93000</v>
       </c>
     </row>
@@ -55343,7 +55383,7 @@
         <v>500</v>
       </c>
       <c r="I240" s="9">
-        <f>H240*G240</f>
+        <f t="shared" si="3"/>
         <v>33500</v>
       </c>
     </row>
@@ -55373,7 +55413,7 @@
         <v>1500</v>
       </c>
       <c r="I241" s="9">
-        <f>H241*G241</f>
+        <f t="shared" si="3"/>
         <v>109500</v>
       </c>
     </row>
@@ -55403,7 +55443,7 @@
         <v>1500</v>
       </c>
       <c r="I242" s="9">
-        <f>H242*G242</f>
+        <f t="shared" si="3"/>
         <v>85500</v>
       </c>
     </row>
@@ -55433,7 +55473,7 @@
         <v>2800</v>
       </c>
       <c r="I243" s="9">
-        <f>H243*G243</f>
+        <f t="shared" si="3"/>
         <v>260400</v>
       </c>
     </row>
@@ -55463,7 +55503,7 @@
         <v>1500</v>
       </c>
       <c r="I244" s="9">
-        <f>H244*G244</f>
+        <f t="shared" si="3"/>
         <v>139500</v>
       </c>
     </row>
@@ -55493,7 +55533,7 @@
         <v>1000</v>
       </c>
       <c r="I245" s="9">
-        <f>H245*G245</f>
+        <f t="shared" si="3"/>
         <v>95000</v>
       </c>
     </row>
@@ -55523,7 +55563,7 @@
         <v>1800</v>
       </c>
       <c r="I246" s="9">
-        <f>H246*G246</f>
+        <f t="shared" si="3"/>
         <v>106200</v>
       </c>
     </row>
@@ -55553,7 +55593,7 @@
         <v>1000</v>
       </c>
       <c r="I247" s="9">
-        <f>H247*G247</f>
+        <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
@@ -55583,7 +55623,7 @@
         <v>15000</v>
       </c>
       <c r="I248" s="9">
-        <f>H248*G248</f>
+        <f t="shared" si="3"/>
         <v>1020000</v>
       </c>
     </row>
@@ -55613,7 +55653,7 @@
         <v>1500</v>
       </c>
       <c r="I249" s="9">
-        <f>H249*G249</f>
+        <f t="shared" si="3"/>
         <v>111000</v>
       </c>
     </row>
@@ -55643,7 +55683,7 @@
         <v>2500</v>
       </c>
       <c r="I250" s="9">
-        <f>H250*G250</f>
+        <f t="shared" si="3"/>
         <v>215000</v>
       </c>
     </row>
@@ -55673,7 +55713,7 @@
         <v>1200</v>
       </c>
       <c r="I251" s="9">
-        <f>H251*G251</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -55703,7 +55743,7 @@
         <v>1500</v>
       </c>
       <c r="I252" s="9">
-        <f>H252*G252</f>
+        <f t="shared" si="3"/>
         <v>81000</v>
       </c>
     </row>
@@ -55733,7 +55773,7 @@
         <v>1000</v>
       </c>
       <c r="I253" s="9">
-        <f>H253*G253</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -55763,7 +55803,7 @@
         <v>1500</v>
       </c>
       <c r="I254" s="9">
-        <f>H254*G254</f>
+        <f t="shared" si="3"/>
         <v>130500</v>
       </c>
     </row>
@@ -55793,7 +55833,7 @@
         <v>1200</v>
       </c>
       <c r="I255" s="9">
-        <f>H255*G255</f>
+        <f t="shared" si="3"/>
         <v>111600</v>
       </c>
     </row>
@@ -55823,7 +55863,7 @@
         <v>1000</v>
       </c>
       <c r="I256" s="9">
-        <f>H256*G256</f>
+        <f t="shared" si="3"/>
         <v>88000</v>
       </c>
     </row>
@@ -55853,7 +55893,7 @@
         <v>5000</v>
       </c>
       <c r="I257" s="9">
-        <f>H257*G257</f>
+        <f t="shared" si="3"/>
         <v>460000</v>
       </c>
     </row>
@@ -55883,7 +55923,7 @@
         <v>500</v>
       </c>
       <c r="I258" s="9">
-        <f>H258*G258</f>
+        <f t="shared" ref="I258:I321" si="4">H258*G258</f>
         <v>38500</v>
       </c>
     </row>
@@ -55913,7 +55953,7 @@
         <v>1500</v>
       </c>
       <c r="I259" s="9">
-        <f>H259*G259</f>
+        <f t="shared" si="4"/>
         <v>133500</v>
       </c>
     </row>
@@ -55943,7 +55983,7 @@
         <v>1000</v>
       </c>
       <c r="I260" s="13">
-        <f>H260*G260</f>
+        <f t="shared" si="4"/>
         <v>77000</v>
       </c>
     </row>
@@ -56188,10 +56228,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L33"/>
+  <dimension ref="B1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -56206,7 +56246,9 @@
     <col min="8" max="8" width="9.875" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="17" customWidth="1"/>
-    <col min="11" max="256" width="9" style="17"/>
+    <col min="11" max="11" width="9" style="17"/>
+    <col min="12" max="12" width="12.125" style="17" customWidth="1"/>
+    <col min="13" max="256" width="9" style="17"/>
     <col min="257" max="257" width="1.5" style="17" customWidth="1"/>
     <col min="258" max="258" width="10.875" style="17" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="9.625" style="17" bestFit="1" customWidth="1"/>
@@ -57064,13 +57106,13 @@
       <c r="D10" s="23" t="s">
         <v>1412</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>1424</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>1425</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="27"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
@@ -57090,108 +57132,133 @@
       <c r="K11" s="35"/>
       <c r="L11" s="36"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B14" s="14" t="s">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B13" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J13" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K13" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L13" s="16" t="s">
         <v>888</v>
       </c>
     </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+    </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
-        <v>1158</v>
+      <c r="B15" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>890</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>1825</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>1826</v>
+        <v>1413</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>1417</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>1830</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>1429</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
+        <v>1426</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="23" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>1157</v>
+        <v>897</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>2077</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>1827</v>
+        <v>2081</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>2079</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>1427</v>
-      </c>
-      <c r="G16" s="24"/>
+        <v>2082</v>
+      </c>
+      <c r="G16" s="28"/>
       <c r="H16" s="23" t="s">
         <v>1430</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="22" t="s">
-        <v>1405</v>
-      </c>
+      <c r="B17" s="22"/>
       <c r="C17" s="27" t="s">
-        <v>895</v>
+        <v>2078</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>1828</v>
+        <v>2081</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>2080</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>1425</v>
+        <v>2082</v>
       </c>
       <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="H17" s="23" t="s">
+        <v>1430</v>
+      </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
@@ -57200,288 +57267,496 @@
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="26"/>
       <c r="C18" s="27" t="s">
-        <v>1160</v>
+        <v>894</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>1829</v>
+        <v>2083</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>1421</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+        <v>2084</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="23" t="s">
+        <v>1430</v>
+      </c>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="14" t="s">
+      <c r="L18" s="29" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="26"/>
+      <c r="C21" s="30" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B24" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F24" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G24" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L24" s="16" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D22" s="23" t="s">
+    <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>1825</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>2069</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="E25" s="19" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>1830</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G25" s="20" t="s">
         <v>1429</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="22" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D23" s="23" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="22" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>1414</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F23" s="23" t="s">
+      <c r="E26" s="23" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>1427</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="23" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="23" t="s">
         <v>1430</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="22" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>893</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>2071</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>1427</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="23" t="s">
-        <v>1430</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="26"/>
-      <c r="C25" s="27" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>2067</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>2072</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>2074</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
-    </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="37"/>
-      <c r="C26" s="23" t="s">
-        <v>889</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>2075</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B28" s="14" t="s">
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="22" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B31" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F31" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G31" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H31" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I31" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J31" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K31" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L31" s="16" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
-    </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="37"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
+      <c r="B33" s="22" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>1427</v>
+      </c>
       <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="H33" s="23" t="s">
+        <v>1430</v>
+      </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="22" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>893</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="23" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
+    </row>
+    <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="37"/>
+      <c r="C36" s="23" t="s">
+        <v>889</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B38" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>880</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>886</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
+    </row>
+    <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="37"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -57495,7 +57770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G373" sqref="G373"/>
     </sheetView>
   </sheetViews>
@@ -63032,7 +63307,7 @@
   <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -63071,7 +63346,7 @@
       <c r="C2" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>1831</v>
       </c>
     </row>
@@ -63085,7 +63360,7 @@
       <c r="C3" t="s">
         <v>532</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>1832</v>
       </c>
     </row>
@@ -63099,7 +63374,7 @@
       <c r="C4" t="s">
         <v>675</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>1833</v>
       </c>
     </row>
@@ -63113,7 +63388,7 @@
       <c r="C5" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>1834</v>
       </c>
     </row>
@@ -63127,7 +63402,7 @@
       <c r="C6" t="s">
         <v>797</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>1835</v>
       </c>
     </row>
@@ -63141,7 +63416,7 @@
       <c r="C7" t="s">
         <v>329</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>1836</v>
       </c>
     </row>
@@ -63155,7 +63430,7 @@
       <c r="C8" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>1837</v>
       </c>
     </row>
@@ -63169,7 +63444,7 @@
       <c r="C9" t="s">
         <v>411</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>1838</v>
       </c>
     </row>
@@ -63183,7 +63458,7 @@
       <c r="C10" t="s">
         <v>526</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>1839</v>
       </c>
     </row>
@@ -63197,7 +63472,7 @@
       <c r="C11" t="s">
         <v>378</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>1840</v>
       </c>
     </row>
@@ -63211,7 +63486,7 @@
       <c r="C12" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>1841</v>
       </c>
     </row>
@@ -63225,7 +63500,7 @@
       <c r="C13" t="s">
         <v>477</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -63239,7 +63514,7 @@
       <c r="C14" t="s">
         <v>606</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>1843</v>
       </c>
     </row>
@@ -63253,7 +63528,7 @@
       <c r="C15" t="s">
         <v>303</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>1844</v>
       </c>
     </row>
@@ -63267,7 +63542,7 @@
       <c r="C16" t="s">
         <v>763</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>1845</v>
       </c>
     </row>
@@ -63281,7 +63556,7 @@
       <c r="C17" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>1846</v>
       </c>
     </row>
@@ -63295,7 +63570,7 @@
       <c r="C18" t="s">
         <v>453</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>1847</v>
       </c>
     </row>
@@ -63309,7 +63584,7 @@
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>1848</v>
       </c>
     </row>
@@ -63323,7 +63598,7 @@
       <c r="C20" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>1849</v>
       </c>
     </row>
@@ -63337,7 +63612,7 @@
       <c r="C21" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>1850</v>
       </c>
     </row>
@@ -63351,7 +63626,7 @@
       <c r="C22" t="s">
         <v>507</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="41" t="s">
         <v>1851</v>
       </c>
     </row>
@@ -63365,7 +63640,7 @@
       <c r="C23" t="s">
         <v>236</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="41" t="s">
         <v>1852</v>
       </c>
     </row>
@@ -63379,7 +63654,7 @@
       <c r="C24" t="s">
         <v>438</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="41" t="s">
         <v>1853</v>
       </c>
     </row>
@@ -63393,7 +63668,7 @@
       <c r="C25" t="s">
         <v>553</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>1854</v>
       </c>
     </row>
@@ -63407,7 +63682,7 @@
       <c r="C26" t="s">
         <v>643</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>1855</v>
       </c>
     </row>
@@ -63421,7 +63696,7 @@
       <c r="C27" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -63435,7 +63710,7 @@
       <c r="C28" t="s">
         <v>712</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -63449,7 +63724,7 @@
       <c r="C29" t="s">
         <v>455</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>1858</v>
       </c>
     </row>
@@ -63463,7 +63738,7 @@
       <c r="C30" t="s">
         <v>685</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>1859</v>
       </c>
     </row>
@@ -63477,7 +63752,7 @@
       <c r="C31" t="s">
         <v>653</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>1860</v>
       </c>
     </row>
@@ -63491,7 +63766,7 @@
       <c r="C32" t="s">
         <v>563</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="41" t="s">
         <v>1861</v>
       </c>
     </row>
@@ -63505,7 +63780,7 @@
       <c r="C33" t="s">
         <v>725</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="41" t="s">
         <v>1862</v>
       </c>
     </row>
@@ -63519,7 +63794,7 @@
       <c r="C34" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="41" t="s">
         <v>1863</v>
       </c>
     </row>
@@ -63533,7 +63808,7 @@
       <c r="C35" t="s">
         <v>672</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="41" t="s">
         <v>1864</v>
       </c>
     </row>
@@ -63547,7 +63822,7 @@
       <c r="C36" t="s">
         <v>511</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="41" t="s">
         <v>1865</v>
       </c>
     </row>
@@ -63561,7 +63836,7 @@
       <c r="C37" t="s">
         <v>432</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>1866</v>
       </c>
     </row>
@@ -63575,7 +63850,7 @@
       <c r="C38" t="s">
         <v>504</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="41" t="s">
         <v>1867</v>
       </c>
     </row>
@@ -63589,7 +63864,7 @@
       <c r="C39" t="s">
         <v>775</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="41" t="s">
         <v>1868</v>
       </c>
     </row>
@@ -63603,7 +63878,7 @@
       <c r="C40" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="41" t="s">
         <v>1869</v>
       </c>
     </row>
@@ -63617,7 +63892,7 @@
       <c r="C41" t="s">
         <v>876</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="41" t="s">
         <v>1870</v>
       </c>
     </row>
@@ -63631,7 +63906,7 @@
       <c r="C42" t="s">
         <v>544</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="41" t="s">
         <v>1871</v>
       </c>
     </row>
@@ -63645,7 +63920,7 @@
       <c r="C43" t="s">
         <v>640</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="41" t="s">
         <v>1872</v>
       </c>
     </row>
@@ -63659,7 +63934,7 @@
       <c r="C44" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="41" t="s">
         <v>1873</v>
       </c>
     </row>
@@ -63673,7 +63948,7 @@
       <c r="C45" t="s">
         <v>423</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="41" t="s">
         <v>1874</v>
       </c>
     </row>
@@ -63687,7 +63962,7 @@
       <c r="C46" t="s">
         <v>854</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>1875</v>
       </c>
     </row>
@@ -63701,7 +63976,7 @@
       <c r="C47" t="s">
         <v>386</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="41" t="s">
         <v>1876</v>
       </c>
     </row>
@@ -63715,7 +63990,7 @@
       <c r="C48" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="41" t="s">
         <v>1877</v>
       </c>
     </row>
@@ -63729,7 +64004,7 @@
       <c r="C49" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="41" t="s">
         <v>1878</v>
       </c>
     </row>
@@ -63743,7 +64018,7 @@
       <c r="C50" t="s">
         <v>266</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="41" t="s">
         <v>1879</v>
       </c>
     </row>
@@ -63757,7 +64032,7 @@
       <c r="C51" t="s">
         <v>574</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="41" t="s">
         <v>1880</v>
       </c>
     </row>
@@ -63771,7 +64046,7 @@
       <c r="C52" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="41" t="s">
         <v>1881</v>
       </c>
     </row>
@@ -63785,7 +64060,7 @@
       <c r="C53" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="41" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -63799,7 +64074,7 @@
       <c r="C54" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="41" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -63813,7 +64088,7 @@
       <c r="C55" t="s">
         <v>813</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="41" t="s">
         <v>1884</v>
       </c>
     </row>
@@ -63827,7 +64102,7 @@
       <c r="C56" t="s">
         <v>464</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="41" t="s">
         <v>1885</v>
       </c>
     </row>
@@ -63841,7 +64116,7 @@
       <c r="C57" t="s">
         <v>397</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="41" t="s">
         <v>1886</v>
       </c>
     </row>
@@ -63855,7 +64130,7 @@
       <c r="C58" t="s">
         <v>389</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="D58" s="41" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -63869,7 +64144,7 @@
       <c r="C59" t="s">
         <v>588</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="41" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -63883,7 +64158,7 @@
       <c r="C60" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="41" t="s">
         <v>1889</v>
       </c>
     </row>
@@ -63897,7 +64172,7 @@
       <c r="C61" t="s">
         <v>441</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="41" t="s">
         <v>1890</v>
       </c>
     </row>
@@ -63911,7 +64186,7 @@
       <c r="C62" t="s">
         <v>599</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="D62" s="41" t="s">
         <v>1891</v>
       </c>
     </row>
@@ -63925,7 +64200,7 @@
       <c r="C63" t="s">
         <v>435</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="41" t="s">
         <v>1892</v>
       </c>
     </row>
@@ -63939,7 +64214,7 @@
       <c r="C64" t="s">
         <v>683</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="41" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -63953,7 +64228,7 @@
       <c r="C65" t="s">
         <v>802</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="41" t="s">
         <v>1894</v>
       </c>
     </row>
@@ -63967,7 +64242,7 @@
       <c r="C66" t="s">
         <v>754</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="41" t="s">
         <v>1895</v>
       </c>
     </row>
@@ -63981,7 +64256,7 @@
       <c r="C67" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="42" t="s">
+      <c r="D67" s="41" t="s">
         <v>1896</v>
       </c>
     </row>
@@ -63995,7 +64270,7 @@
       <c r="C68" t="s">
         <v>426</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="D68" s="41" t="s">
         <v>1897</v>
       </c>
     </row>
@@ -64009,7 +64284,7 @@
       <c r="C69" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="41" t="s">
         <v>1898</v>
       </c>
     </row>
@@ -64023,7 +64298,7 @@
       <c r="C70" t="s">
         <v>502</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="D70" s="41" t="s">
         <v>1899</v>
       </c>
     </row>
@@ -64037,7 +64312,7 @@
       <c r="C71" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="D71" s="41" t="s">
         <v>1900</v>
       </c>
     </row>
@@ -64051,7 +64326,7 @@
       <c r="C72" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="41" t="s">
         <v>1901</v>
       </c>
     </row>
@@ -64065,7 +64340,7 @@
       <c r="C73" t="s">
         <v>259</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="41" t="s">
         <v>1902</v>
       </c>
     </row>
@@ -64079,7 +64354,7 @@
       <c r="C74" t="s">
         <v>346</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="D74" s="41" t="s">
         <v>1903</v>
       </c>
     </row>
@@ -64093,7 +64368,7 @@
       <c r="C75" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="41" t="s">
         <v>1904</v>
       </c>
     </row>
@@ -64107,7 +64382,7 @@
       <c r="C76" t="s">
         <v>748</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="41" t="s">
         <v>1905</v>
       </c>
     </row>
@@ -64121,7 +64396,7 @@
       <c r="C77" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="41" t="s">
         <v>1906</v>
       </c>
     </row>
@@ -64135,7 +64410,7 @@
       <c r="C78" t="s">
         <v>58</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D78" s="41" t="s">
         <v>1907</v>
       </c>
     </row>
@@ -64149,7 +64424,7 @@
       <c r="C79" t="s">
         <v>421</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="41" t="s">
         <v>1908</v>
       </c>
     </row>
@@ -64163,7 +64438,7 @@
       <c r="C80" t="s">
         <v>280</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="D80" s="41" t="s">
         <v>1909</v>
       </c>
     </row>
@@ -64177,7 +64452,7 @@
       <c r="C81" t="s">
         <v>381</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="41" t="s">
         <v>1910</v>
       </c>
     </row>
@@ -64191,7 +64466,7 @@
       <c r="C82" t="s">
         <v>196</v>
       </c>
-      <c r="D82" s="42" t="s">
+      <c r="D82" s="41" t="s">
         <v>1911</v>
       </c>
     </row>
@@ -64205,7 +64480,7 @@
       <c r="C83" t="s">
         <v>157</v>
       </c>
-      <c r="D83" s="42" t="s">
+      <c r="D83" s="41" t="s">
         <v>1912</v>
       </c>
     </row>
@@ -64219,7 +64494,7 @@
       <c r="C84" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="41" t="s">
         <v>1913</v>
       </c>
     </row>
@@ -64233,7 +64508,7 @@
       <c r="C85" t="s">
         <v>222</v>
       </c>
-      <c r="D85" s="42" t="s">
+      <c r="D85" s="41" t="s">
         <v>1914</v>
       </c>
     </row>
@@ -64247,7 +64522,7 @@
       <c r="C86" t="s">
         <v>470</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="D86" s="41" t="s">
         <v>1915</v>
       </c>
     </row>
@@ -64261,7 +64536,7 @@
       <c r="C87" t="s">
         <v>826</v>
       </c>
-      <c r="D87" s="42" t="s">
+      <c r="D87" s="41" t="s">
         <v>1916</v>
       </c>
     </row>
@@ -64275,7 +64550,7 @@
       <c r="C88" t="s">
         <v>326</v>
       </c>
-      <c r="D88" s="42" t="s">
+      <c r="D88" s="41" t="s">
         <v>1917</v>
       </c>
     </row>
@@ -64289,7 +64564,7 @@
       <c r="C89" t="s">
         <v>740</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="41" t="s">
         <v>1918</v>
       </c>
     </row>
@@ -64303,7 +64578,7 @@
       <c r="C90" t="s">
         <v>481</v>
       </c>
-      <c r="D90" s="42" t="s">
+      <c r="D90" s="41" t="s">
         <v>1919</v>
       </c>
     </row>
@@ -64317,7 +64592,7 @@
       <c r="C91" t="s">
         <v>151</v>
       </c>
-      <c r="D91" s="42" t="s">
+      <c r="D91" s="41" t="s">
         <v>1920</v>
       </c>
     </row>
@@ -64331,7 +64606,7 @@
       <c r="C92" t="s">
         <v>523</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="41" t="s">
         <v>1921</v>
       </c>
     </row>
@@ -64345,7 +64620,7 @@
       <c r="C93" t="s">
         <v>117</v>
       </c>
-      <c r="D93" s="42" t="s">
+      <c r="D93" s="41" t="s">
         <v>1922</v>
       </c>
     </row>
@@ -64359,7 +64634,7 @@
       <c r="C94" t="s">
         <v>447</v>
       </c>
-      <c r="D94" s="42" t="s">
+      <c r="D94" s="41" t="s">
         <v>1923</v>
       </c>
     </row>
@@ -64373,7 +64648,7 @@
       <c r="C95" t="s">
         <v>528</v>
       </c>
-      <c r="D95" s="42" t="s">
+      <c r="D95" s="41" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -64387,7 +64662,7 @@
       <c r="C96" t="s">
         <v>585</v>
       </c>
-      <c r="D96" s="42" t="s">
+      <c r="D96" s="41" t="s">
         <v>1925</v>
       </c>
     </row>
@@ -64401,7 +64676,7 @@
       <c r="C97" t="s">
         <v>649</v>
       </c>
-      <c r="D97" s="42" t="s">
+      <c r="D97" s="41" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -64415,7 +64690,7 @@
       <c r="C98" t="s">
         <v>98</v>
       </c>
-      <c r="D98" s="42" t="s">
+      <c r="D98" s="41" t="s">
         <v>1927</v>
       </c>
     </row>
@@ -64429,7 +64704,7 @@
       <c r="C99" t="s">
         <v>206</v>
       </c>
-      <c r="D99" s="42" t="s">
+      <c r="D99" s="41" t="s">
         <v>1928</v>
       </c>
     </row>
@@ -64443,7 +64718,7 @@
       <c r="C100" t="s">
         <v>738</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="41" t="s">
         <v>1929</v>
       </c>
     </row>
@@ -64457,7 +64732,7 @@
       <c r="C101" t="s">
         <v>666</v>
       </c>
-      <c r="D101" s="42" t="s">
+      <c r="D101" s="41" t="s">
         <v>1930</v>
       </c>
     </row>
@@ -64471,7 +64746,7 @@
       <c r="C102" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="42" t="s">
+      <c r="D102" s="41" t="s">
         <v>1931</v>
       </c>
     </row>
@@ -64485,7 +64760,7 @@
       <c r="C103" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="42" t="s">
+      <c r="D103" s="41" t="s">
         <v>1932</v>
       </c>
     </row>
@@ -64499,7 +64774,7 @@
       <c r="C104" t="s">
         <v>145</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="41" t="s">
         <v>1933</v>
       </c>
     </row>
@@ -64513,7 +64788,7 @@
       <c r="C105" t="s">
         <v>274</v>
       </c>
-      <c r="D105" s="42" t="s">
+      <c r="D105" s="41" t="s">
         <v>1934</v>
       </c>
     </row>
@@ -64527,7 +64802,7 @@
       <c r="C106" t="s">
         <v>787</v>
       </c>
-      <c r="D106" s="42" t="s">
+      <c r="D106" s="41" t="s">
         <v>1935</v>
       </c>
     </row>
@@ -64541,7 +64816,7 @@
       <c r="C107" t="s">
         <v>728</v>
       </c>
-      <c r="D107" s="42" t="s">
+      <c r="D107" s="41" t="s">
         <v>1936</v>
       </c>
     </row>
@@ -64555,7 +64830,7 @@
       <c r="C108" t="s">
         <v>459</v>
       </c>
-      <c r="D108" s="42" t="s">
+      <c r="D108" s="41" t="s">
         <v>1937</v>
       </c>
     </row>
@@ -64569,7 +64844,7 @@
       <c r="C109" t="s">
         <v>404</v>
       </c>
-      <c r="D109" s="42" t="s">
+      <c r="D109" s="41" t="s">
         <v>1938</v>
       </c>
     </row>
@@ -64583,7 +64858,7 @@
       <c r="C110" t="s">
         <v>698</v>
       </c>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="41" t="s">
         <v>1939</v>
       </c>
     </row>
@@ -64597,7 +64872,7 @@
       <c r="C111" t="s">
         <v>594</v>
       </c>
-      <c r="D111" s="42" t="s">
+      <c r="D111" s="41" t="s">
         <v>1940</v>
       </c>
     </row>
@@ -64611,7 +64886,7 @@
       <c r="C112" t="s">
         <v>37</v>
       </c>
-      <c r="D112" s="42" t="s">
+      <c r="D112" s="41" t="s">
         <v>1941</v>
       </c>
     </row>
@@ -64625,7 +64900,7 @@
       <c r="C113" t="s">
         <v>408</v>
       </c>
-      <c r="D113" s="42" t="s">
+      <c r="D113" s="41" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -64639,7 +64914,7 @@
       <c r="C114" t="s">
         <v>216</v>
       </c>
-      <c r="D114" s="42" t="s">
+      <c r="D114" s="41" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -64653,7 +64928,7 @@
       <c r="C115" t="s">
         <v>617</v>
       </c>
-      <c r="D115" s="42" t="s">
+      <c r="D115" s="41" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -64667,7 +64942,7 @@
       <c r="C116" t="s">
         <v>61</v>
       </c>
-      <c r="D116" s="42" t="s">
+      <c r="D116" s="41" t="s">
         <v>1945</v>
       </c>
     </row>
@@ -64681,7 +64956,7 @@
       <c r="C117" t="s">
         <v>719</v>
       </c>
-      <c r="D117" s="42" t="s">
+      <c r="D117" s="41" t="s">
         <v>1946</v>
       </c>
     </row>
@@ -64695,7 +64970,7 @@
       <c r="C118" t="s">
         <v>850</v>
       </c>
-      <c r="D118" s="42" t="s">
+      <c r="D118" s="41" t="s">
         <v>1947</v>
       </c>
     </row>
@@ -64709,7 +64984,7 @@
       <c r="C119" t="s">
         <v>517</v>
       </c>
-      <c r="D119" s="42" t="s">
+      <c r="D119" s="41" t="s">
         <v>1948</v>
       </c>
     </row>
@@ -64723,7 +64998,7 @@
       <c r="C120" t="s">
         <v>120</v>
       </c>
-      <c r="D120" s="42" t="s">
+      <c r="D120" s="41" t="s">
         <v>1949</v>
       </c>
     </row>
@@ -64737,7 +65012,7 @@
       <c r="C121" t="s">
         <v>823</v>
       </c>
-      <c r="D121" s="42" t="s">
+      <c r="D121" s="41" t="s">
         <v>1950</v>
       </c>
     </row>
@@ -64751,7 +65026,7 @@
       <c r="C122" t="s">
         <v>288</v>
       </c>
-      <c r="D122" s="42" t="s">
+      <c r="D122" s="41" t="s">
         <v>1951</v>
       </c>
     </row>
@@ -64765,7 +65040,7 @@
       <c r="C123" t="s">
         <v>779</v>
       </c>
-      <c r="D123" s="42" t="s">
+      <c r="D123" s="41" t="s">
         <v>1952</v>
       </c>
     </row>
@@ -64779,7 +65054,7 @@
       <c r="C124" t="s">
         <v>92</v>
       </c>
-      <c r="D124" s="42" t="s">
+      <c r="D124" s="41" t="s">
         <v>1953</v>
       </c>
     </row>
@@ -64793,7 +65068,7 @@
       <c r="C125" t="s">
         <v>138</v>
       </c>
-      <c r="D125" s="42" t="s">
+      <c r="D125" s="41" t="s">
         <v>1954</v>
       </c>
     </row>
@@ -64807,7 +65082,7 @@
       <c r="C126" t="s">
         <v>646</v>
       </c>
-      <c r="D126" s="42" t="s">
+      <c r="D126" s="41" t="s">
         <v>1955</v>
       </c>
     </row>
@@ -64821,7 +65096,7 @@
       <c r="C127" t="s">
         <v>429</v>
       </c>
-      <c r="D127" s="42" t="s">
+      <c r="D127" s="41" t="s">
         <v>1956</v>
       </c>
     </row>
@@ -64835,7 +65110,7 @@
       <c r="C128" t="s">
         <v>732</v>
       </c>
-      <c r="D128" s="42" t="s">
+      <c r="D128" s="41" t="s">
         <v>1957</v>
       </c>
     </row>
@@ -64849,7 +65124,7 @@
       <c r="C129" t="s">
         <v>283</v>
       </c>
-      <c r="D129" s="42" t="s">
+      <c r="D129" s="41" t="s">
         <v>1958</v>
       </c>
     </row>
@@ -64863,7 +65138,7 @@
       <c r="C130" t="s">
         <v>199</v>
       </c>
-      <c r="D130" s="42" t="s">
+      <c r="D130" s="41" t="s">
         <v>1959</v>
       </c>
     </row>
@@ -64877,7 +65152,7 @@
       <c r="C131" t="s">
         <v>354</v>
       </c>
-      <c r="D131" s="42" t="s">
+      <c r="D131" s="41" t="s">
         <v>1960</v>
       </c>
     </row>
@@ -64891,7 +65166,7 @@
       <c r="C132" t="s">
         <v>626</v>
       </c>
-      <c r="D132" s="42" t="s">
+      <c r="D132" s="41" t="s">
         <v>1961</v>
       </c>
     </row>
@@ -64905,7 +65180,7 @@
       <c r="C133" t="s">
         <v>252</v>
       </c>
-      <c r="D133" s="42" t="s">
+      <c r="D133" s="41" t="s">
         <v>1962</v>
       </c>
     </row>
@@ -64919,7 +65194,7 @@
       <c r="C134" t="s">
         <v>577</v>
       </c>
-      <c r="D134" s="42" t="s">
+      <c r="D134" s="41" t="s">
         <v>1963</v>
       </c>
     </row>
@@ -64933,7 +65208,7 @@
       <c r="C135" t="s">
         <v>473</v>
       </c>
-      <c r="D135" s="42" t="s">
+      <c r="D135" s="41" t="s">
         <v>1964</v>
       </c>
     </row>
@@ -64947,7 +65222,7 @@
       <c r="C136" t="s">
         <v>582</v>
       </c>
-      <c r="D136" s="42" t="s">
+      <c r="D136" s="41" t="s">
         <v>1965</v>
       </c>
     </row>
@@ -64961,7 +65236,7 @@
       <c r="C137" t="s">
         <v>40</v>
       </c>
-      <c r="D137" s="42" t="s">
+      <c r="D137" s="41" t="s">
         <v>1966</v>
       </c>
     </row>
@@ -64975,7 +65250,7 @@
       <c r="C138" t="s">
         <v>95</v>
       </c>
-      <c r="D138" s="42" t="s">
+      <c r="D138" s="41" t="s">
         <v>1967</v>
       </c>
     </row>
@@ -64989,7 +65264,7 @@
       <c r="C139" t="s">
         <v>203</v>
       </c>
-      <c r="D139" s="42" t="s">
+      <c r="D139" s="41" t="s">
         <v>1968</v>
       </c>
     </row>
@@ -65003,7 +65278,7 @@
       <c r="C140" t="s">
         <v>297</v>
       </c>
-      <c r="D140" s="42" t="s">
+      <c r="D140" s="41" t="s">
         <v>1969</v>
       </c>
     </row>
@@ -65017,7 +65292,7 @@
       <c r="C141" t="s">
         <v>592</v>
       </c>
-      <c r="D141" s="42" t="s">
+      <c r="D141" s="41" t="s">
         <v>1970</v>
       </c>
     </row>
@@ -65031,7 +65306,7 @@
       <c r="C142" t="s">
         <v>417</v>
       </c>
-      <c r="D142" s="42" t="s">
+      <c r="D142" s="41" t="s">
         <v>1971</v>
       </c>
     </row>
@@ -65045,7 +65320,7 @@
       <c r="C143" t="s">
         <v>810</v>
       </c>
-      <c r="D143" s="42" t="s">
+      <c r="D143" s="41" t="s">
         <v>1972</v>
       </c>
     </row>
@@ -65059,7 +65334,7 @@
       <c r="C144" t="s">
         <v>705</v>
       </c>
-      <c r="D144" s="42" t="s">
+      <c r="D144" s="41" t="s">
         <v>1973</v>
       </c>
     </row>
@@ -65073,7 +65348,7 @@
       <c r="C145" t="s">
         <v>362</v>
       </c>
-      <c r="D145" s="42" t="s">
+      <c r="D145" s="41" t="s">
         <v>1974</v>
       </c>
     </row>
@@ -65087,7 +65362,7 @@
       <c r="C146" t="s">
         <v>129</v>
       </c>
-      <c r="D146" s="42" t="s">
+      <c r="D146" s="41" t="s">
         <v>1975</v>
       </c>
     </row>
@@ -65101,7 +65376,7 @@
       <c r="C147" t="s">
         <v>351</v>
       </c>
-      <c r="D147" s="42" t="s">
+      <c r="D147" s="41" t="s">
         <v>1976</v>
       </c>
     </row>
@@ -65115,7 +65390,7 @@
       <c r="C148" t="s">
         <v>622</v>
       </c>
-      <c r="D148" s="42" t="s">
+      <c r="D148" s="41" t="s">
         <v>1977</v>
       </c>
     </row>
@@ -65129,7 +65404,7 @@
       <c r="C149" t="s">
         <v>176</v>
       </c>
-      <c r="D149" s="42" t="s">
+      <c r="D149" s="41" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -65143,7 +65418,7 @@
       <c r="C150" t="s">
         <v>414</v>
       </c>
-      <c r="D150" s="42" t="s">
+      <c r="D150" s="41" t="s">
         <v>1979</v>
       </c>
     </row>
@@ -65157,7 +65432,7 @@
       <c r="C151" t="s">
         <v>656</v>
       </c>
-      <c r="D151" s="42" t="s">
+      <c r="D151" s="41" t="s">
         <v>1980</v>
       </c>
     </row>
@@ -65171,7 +65446,7 @@
       <c r="C152" t="s">
         <v>637</v>
       </c>
-      <c r="D152" s="42" t="s">
+      <c r="D152" s="41" t="s">
         <v>1981</v>
       </c>
     </row>
@@ -65185,7 +65460,7 @@
       <c r="C153" t="s">
         <v>239</v>
       </c>
-      <c r="D153" s="42" t="s">
+      <c r="D153" s="41" t="s">
         <v>1982</v>
       </c>
     </row>
@@ -65199,7 +65474,7 @@
       <c r="C154" t="s">
         <v>242</v>
       </c>
-      <c r="D154" s="42" t="s">
+      <c r="D154" s="41" t="s">
         <v>1983</v>
       </c>
     </row>
@@ -65213,7 +65488,7 @@
       <c r="C155" t="s">
         <v>835</v>
       </c>
-      <c r="D155" s="42" t="s">
+      <c r="D155" s="41" t="s">
         <v>1984</v>
       </c>
     </row>
@@ -65227,7 +65502,7 @@
       <c r="C156" t="s">
         <v>341</v>
       </c>
-      <c r="D156" s="42" t="s">
+      <c r="D156" s="41" t="s">
         <v>1985</v>
       </c>
     </row>
@@ -65241,7 +65516,7 @@
       <c r="C157" t="s">
         <v>679</v>
       </c>
-      <c r="D157" s="42" t="s">
+      <c r="D157" s="41" t="s">
         <v>1986</v>
       </c>
     </row>
@@ -65255,7 +65530,7 @@
       <c r="C158" t="s">
         <v>307</v>
       </c>
-      <c r="D158" s="42" t="s">
+      <c r="D158" s="41" t="s">
         <v>1987</v>
       </c>
     </row>
@@ -65269,7 +65544,7 @@
       <c r="C159" t="s">
         <v>848</v>
       </c>
-      <c r="D159" s="42" t="s">
+      <c r="D159" s="41" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -65283,7 +65558,7 @@
       <c r="C160" t="s">
         <v>865</v>
       </c>
-      <c r="D160" s="42" t="s">
+      <c r="D160" s="41" t="s">
         <v>1989</v>
       </c>
     </row>
@@ -65297,7 +65572,7 @@
       <c r="C161" t="s">
         <v>64</v>
       </c>
-      <c r="D161" s="42" t="s">
+      <c r="D161" s="41" t="s">
         <v>1990</v>
       </c>
     </row>
@@ -65311,7 +65586,7 @@
       <c r="C162" t="s">
         <v>494</v>
       </c>
-      <c r="D162" s="42" t="s">
+      <c r="D162" s="41" t="s">
         <v>1991</v>
       </c>
     </row>
@@ -65325,7 +65600,7 @@
       <c r="C163" t="s">
         <v>760</v>
       </c>
-      <c r="D163" s="42" t="s">
+      <c r="D163" s="41" t="s">
         <v>1992</v>
       </c>
     </row>
@@ -65339,7 +65614,7 @@
       <c r="C164" t="s">
         <v>52</v>
       </c>
-      <c r="D164" s="42" t="s">
+      <c r="D164" s="41" t="s">
         <v>1993</v>
       </c>
     </row>
@@ -65353,7 +65628,7 @@
       <c r="C165" t="s">
         <v>25</v>
       </c>
-      <c r="D165" s="42" t="s">
+      <c r="D165" s="41" t="s">
         <v>1994</v>
       </c>
     </row>
@@ -65367,7 +65642,7 @@
       <c r="C166" t="s">
         <v>859</v>
       </c>
-      <c r="D166" s="42" t="s">
+      <c r="D166" s="41" t="s">
         <v>1995</v>
       </c>
     </row>
@@ -65381,7 +65656,7 @@
       <c r="C167" t="s">
         <v>450</v>
       </c>
-      <c r="D167" s="42" t="s">
+      <c r="D167" s="41" t="s">
         <v>1996</v>
       </c>
     </row>
@@ -65395,7 +65670,7 @@
       <c r="C168" t="s">
         <v>209</v>
       </c>
-      <c r="D168" s="42" t="s">
+      <c r="D168" s="41" t="s">
         <v>1997</v>
       </c>
     </row>
@@ -65409,7 +65684,7 @@
       <c r="C169" t="s">
         <v>767</v>
       </c>
-      <c r="D169" s="42" t="s">
+      <c r="D169" s="41" t="s">
         <v>1998</v>
       </c>
     </row>
@@ -65423,7 +65698,7 @@
       <c r="C170" t="s">
         <v>335</v>
       </c>
-      <c r="D170" s="42" t="s">
+      <c r="D170" s="41" t="s">
         <v>1999</v>
       </c>
     </row>
@@ -65437,7 +65712,7 @@
       <c r="C171" t="s">
         <v>570</v>
       </c>
-      <c r="D171" s="42" t="s">
+      <c r="D171" s="41" t="s">
         <v>2000</v>
       </c>
     </row>
@@ -65451,7 +65726,7 @@
       <c r="C172" t="s">
         <v>315</v>
       </c>
-      <c r="D172" s="42" t="s">
+      <c r="D172" s="41" t="s">
         <v>2001</v>
       </c>
     </row>
@@ -65465,7 +65740,7 @@
       <c r="C173" t="s">
         <v>14</v>
       </c>
-      <c r="D173" s="42" t="s">
+      <c r="D173" s="41" t="s">
         <v>2002</v>
       </c>
     </row>
@@ -65479,7 +65754,7 @@
       <c r="C174" t="s">
         <v>111</v>
       </c>
-      <c r="D174" s="42" t="s">
+      <c r="D174" s="41" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -65493,7 +65768,7 @@
       <c r="C175" t="s">
         <v>291</v>
       </c>
-      <c r="D175" s="42" t="s">
+      <c r="D175" s="41" t="s">
         <v>2004</v>
       </c>
     </row>
@@ -65507,7 +65782,7 @@
       <c r="C176" t="s">
         <v>181</v>
       </c>
-      <c r="D176" s="42" t="s">
+      <c r="D176" s="41" t="s">
         <v>2005</v>
       </c>
     </row>
@@ -65521,7 +65796,7 @@
       <c r="C177" t="s">
         <v>369</v>
       </c>
-      <c r="D177" s="42" t="s">
+      <c r="D177" s="41" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -65535,7 +65810,7 @@
       <c r="C178" t="s">
         <v>392</v>
       </c>
-      <c r="D178" s="42" t="s">
+      <c r="D178" s="41" t="s">
         <v>2007</v>
       </c>
     </row>
@@ -65549,7 +65824,7 @@
       <c r="C179" t="s">
         <v>520</v>
       </c>
-      <c r="D179" s="42" t="s">
+      <c r="D179" s="41" t="s">
         <v>2008</v>
       </c>
     </row>
@@ -65563,7 +65838,7 @@
       <c r="C180" t="s">
         <v>230</v>
       </c>
-      <c r="D180" s="42" t="s">
+      <c r="D180" s="41" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -65577,7 +65852,7 @@
       <c r="C181" t="s">
         <v>715</v>
       </c>
-      <c r="D181" s="42" t="s">
+      <c r="D181" s="41" t="s">
         <v>2010</v>
       </c>
     </row>
@@ -65591,7 +65866,7 @@
       <c r="C182" t="s">
         <v>359</v>
       </c>
-      <c r="D182" s="42" t="s">
+      <c r="D182" s="41" t="s">
         <v>2011</v>
       </c>
     </row>
@@ -65605,7 +65880,7 @@
       <c r="C183" t="s">
         <v>148</v>
       </c>
-      <c r="D183" s="42" t="s">
+      <c r="D183" s="41" t="s">
         <v>2012</v>
       </c>
     </row>
@@ -65619,7 +65894,7 @@
       <c r="C184" t="s">
         <v>43</v>
       </c>
-      <c r="D184" s="42" t="s">
+      <c r="D184" s="41" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -65633,7 +65908,7 @@
       <c r="C185" t="s">
         <v>250</v>
       </c>
-      <c r="D185" s="42" t="s">
+      <c r="D185" s="41" t="s">
         <v>2014</v>
       </c>
     </row>
@@ -65647,7 +65922,7 @@
       <c r="C186" t="s">
         <v>631</v>
       </c>
-      <c r="D186" s="42" t="s">
+      <c r="D186" s="41" t="s">
         <v>2015</v>
       </c>
     </row>
@@ -65661,7 +65936,7 @@
       <c r="C187" t="s">
         <v>226</v>
       </c>
-      <c r="D187" s="42" t="s">
+      <c r="D187" s="41" t="s">
         <v>2016</v>
       </c>
     </row>
@@ -65675,7 +65950,7 @@
       <c r="C188" t="s">
         <v>126</v>
       </c>
-      <c r="D188" s="42" t="s">
+      <c r="D188" s="41" t="s">
         <v>2017</v>
       </c>
     </row>
@@ -65689,7 +65964,7 @@
       <c r="C189" t="s">
         <v>497</v>
       </c>
-      <c r="D189" s="42" t="s">
+      <c r="D189" s="41" t="s">
         <v>2018</v>
       </c>
     </row>
@@ -65703,7 +65978,7 @@
       <c r="C190" t="s">
         <v>659</v>
       </c>
-      <c r="D190" s="42" t="s">
+      <c r="D190" s="41" t="s">
         <v>2019</v>
       </c>
     </row>
@@ -65717,7 +65992,7 @@
       <c r="C191" t="s">
         <v>556</v>
       </c>
-      <c r="D191" s="42" t="s">
+      <c r="D191" s="41" t="s">
         <v>2020</v>
       </c>
     </row>
@@ -65731,7 +66006,7 @@
       <c r="C192" t="s">
         <v>467</v>
       </c>
-      <c r="D192" s="42" t="s">
+      <c r="D192" s="41" t="s">
         <v>2021</v>
       </c>
     </row>
@@ -65745,7 +66020,7 @@
       <c r="C193" t="s">
         <v>233</v>
       </c>
-      <c r="D193" s="42" t="s">
+      <c r="D193" s="41" t="s">
         <v>2022</v>
       </c>
     </row>
@@ -65759,7 +66034,7 @@
       <c r="C194" t="s">
         <v>332</v>
       </c>
-      <c r="D194" s="42" t="s">
+      <c r="D194" s="41" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -65773,7 +66048,7 @@
       <c r="C195" t="s">
         <v>135</v>
       </c>
-      <c r="D195" s="42" t="s">
+      <c r="D195" s="41" t="s">
         <v>2024</v>
       </c>
     </row>
@@ -65787,7 +66062,7 @@
       <c r="C196" t="s">
         <v>286</v>
       </c>
-      <c r="D196" s="42" t="s">
+      <c r="D196" s="41" t="s">
         <v>2025</v>
       </c>
     </row>
@@ -65801,7 +66076,7 @@
       <c r="C197" t="s">
         <v>277</v>
       </c>
-      <c r="D197" s="42" t="s">
+      <c r="D197" s="41" t="s">
         <v>2026</v>
       </c>
     </row>
@@ -65815,7 +66090,7 @@
       <c r="C198" t="s">
         <v>18</v>
       </c>
-      <c r="D198" s="42" t="s">
+      <c r="D198" s="41" t="s">
         <v>2027</v>
       </c>
     </row>
@@ -65829,7 +66104,7 @@
       <c r="C199" t="s">
         <v>114</v>
       </c>
-      <c r="D199" s="42" t="s">
+      <c r="D199" s="41" t="s">
         <v>2028</v>
       </c>
     </row>
@@ -65843,7 +66118,7 @@
       <c r="C200" t="s">
         <v>789</v>
       </c>
-      <c r="D200" s="42" t="s">
+      <c r="D200" s="41" t="s">
         <v>2029</v>
       </c>
     </row>
@@ -65857,7 +66132,7 @@
       <c r="C201" t="s">
         <v>89</v>
       </c>
-      <c r="D201" s="42" t="s">
+      <c r="D201" s="41" t="s">
         <v>2030</v>
       </c>
     </row>
@@ -65871,7 +66146,7 @@
       <c r="C202" t="s">
         <v>610</v>
       </c>
-      <c r="D202" s="42" t="s">
+      <c r="D202" s="41" t="s">
         <v>2031</v>
       </c>
     </row>
@@ -65885,7 +66160,7 @@
       <c r="C203" t="s">
         <v>400</v>
       </c>
-      <c r="D203" s="42" t="s">
+      <c r="D203" s="41" t="s">
         <v>2032</v>
       </c>
     </row>
@@ -65899,7 +66174,7 @@
       <c r="C204" t="s">
         <v>142</v>
       </c>
-      <c r="D204" s="42" t="s">
+      <c r="D204" s="41" t="s">
         <v>2033</v>
       </c>
     </row>
@@ -65913,7 +66188,7 @@
       <c r="C205" t="s">
         <v>263</v>
       </c>
-      <c r="D205" s="42" t="s">
+      <c r="D205" s="41" t="s">
         <v>2034</v>
       </c>
     </row>
@@ -65927,7 +66202,7 @@
       <c r="C206" t="s">
         <v>74</v>
       </c>
-      <c r="D206" s="42" t="s">
+      <c r="D206" s="41" t="s">
         <v>2035</v>
       </c>
     </row>
@@ -65941,7 +66216,7 @@
       <c r="C207" t="s">
         <v>488</v>
       </c>
-      <c r="D207" s="42" t="s">
+      <c r="D207" s="41" t="s">
         <v>2036</v>
       </c>
     </row>
@@ -65955,7 +66230,7 @@
       <c r="C208" t="s">
         <v>123</v>
       </c>
-      <c r="D208" s="42" t="s">
+      <c r="D208" s="41" t="s">
         <v>2037</v>
       </c>
     </row>
@@ -65969,7 +66244,7 @@
       <c r="C209" t="s">
         <v>108</v>
       </c>
-      <c r="D209" s="42" t="s">
+      <c r="D209" s="41" t="s">
         <v>2038</v>
       </c>
     </row>
@@ -65983,7 +66258,7 @@
       <c r="C210" t="s">
         <v>782</v>
       </c>
-      <c r="D210" s="42" t="s">
+      <c r="D210" s="41" t="s">
         <v>2039</v>
       </c>
     </row>
@@ -65997,7 +66272,7 @@
       <c r="C211" t="s">
         <v>603</v>
       </c>
-      <c r="D211" s="42" t="s">
+      <c r="D211" s="41" t="s">
         <v>2040</v>
       </c>
     </row>
@@ -66011,7 +66286,7 @@
       <c r="C212" t="s">
         <v>375</v>
       </c>
-      <c r="D212" s="42" t="s">
+      <c r="D212" s="41" t="s">
         <v>2041</v>
       </c>
     </row>
@@ -66025,7 +66300,7 @@
       <c r="C213" t="s">
         <v>173</v>
       </c>
-      <c r="D213" s="42" t="s">
+      <c r="D213" s="41" t="s">
         <v>2042</v>
       </c>
     </row>
@@ -66039,7 +66314,7 @@
       <c r="C214" t="s">
         <v>820</v>
       </c>
-      <c r="D214" s="42" t="s">
+      <c r="D214" s="41" t="s">
         <v>2043</v>
       </c>
     </row>
@@ -66053,7 +66328,7 @@
       <c r="C215" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="42" t="s">
+      <c r="D215" s="41" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -66067,7 +66342,7 @@
       <c r="C216" t="s">
         <v>213</v>
       </c>
-      <c r="D216" s="42" t="s">
+      <c r="D216" s="41" t="s">
         <v>2045</v>
       </c>
     </row>
@@ -66081,7 +66356,7 @@
       <c r="C217" t="s">
         <v>550</v>
       </c>
-      <c r="D217" s="42" t="s">
+      <c r="D217" s="41" t="s">
         <v>2046</v>
       </c>
     </row>
@@ -66095,7 +66370,7 @@
       <c r="C218" t="s">
         <v>541</v>
       </c>
-      <c r="D218" s="42" t="s">
+      <c r="D218" s="41" t="s">
         <v>2047</v>
       </c>
     </row>
@@ -66109,7 +66384,7 @@
       <c r="C219" t="s">
         <v>444</v>
       </c>
-      <c r="D219" s="42" t="s">
+      <c r="D219" s="41" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -66123,7 +66398,7 @@
       <c r="C220" t="s">
         <v>132</v>
       </c>
-      <c r="D220" s="42" t="s">
+      <c r="D220" s="41" t="s">
         <v>2049</v>
       </c>
     </row>
@@ -66137,7 +66412,7 @@
       <c r="C221" t="s">
         <v>669</v>
       </c>
-      <c r="D221" s="42" t="s">
+      <c r="D221" s="41" t="s">
         <v>2050</v>
       </c>
     </row>
@@ -66151,7 +66426,7 @@
       <c r="C222" t="s">
         <v>105</v>
       </c>
-      <c r="D222" s="42" t="s">
+      <c r="D222" s="41" t="s">
         <v>2051</v>
       </c>
     </row>
@@ -66165,7 +66440,7 @@
       <c r="C223" t="s">
         <v>271</v>
       </c>
-      <c r="D223" s="42" t="s">
+      <c r="D223" s="41" t="s">
         <v>2052</v>
       </c>
     </row>
@@ -66179,7 +66454,7 @@
       <c r="C224" t="s">
         <v>842</v>
       </c>
-      <c r="D224" s="42" t="s">
+      <c r="D224" s="41" t="s">
         <v>2053</v>
       </c>
     </row>
@@ -66193,7 +66468,7 @@
       <c r="C225" t="s">
         <v>547</v>
       </c>
-      <c r="D225" s="42" t="s">
+      <c r="D225" s="41" t="s">
         <v>2054</v>
       </c>
     </row>
@@ -66207,7 +66482,7 @@
       <c r="C226" t="s">
         <v>484</v>
       </c>
-      <c r="D226" s="42" t="s">
+      <c r="D226" s="41" t="s">
         <v>2055</v>
       </c>
     </row>
@@ -66221,7 +66496,7 @@
       <c r="C227" t="s">
         <v>86</v>
       </c>
-      <c r="D227" s="42" t="s">
+      <c r="D227" s="41" t="s">
         <v>2056</v>
       </c>
     </row>
@@ -66235,7 +66510,7 @@
       <c r="C228" t="s">
         <v>300</v>
       </c>
-      <c r="D228" s="42" t="s">
+      <c r="D228" s="41" t="s">
         <v>2057</v>
       </c>
     </row>
@@ -66249,7 +66524,7 @@
       <c r="C229" t="s">
         <v>829</v>
       </c>
-      <c r="D229" s="42" t="s">
+      <c r="D229" s="41" t="s">
         <v>2058</v>
       </c>
     </row>
@@ -66263,7 +66538,7 @@
       <c r="C230" t="s">
         <v>514</v>
       </c>
-      <c r="D230" s="42" t="s">
+      <c r="D230" s="41" t="s">
         <v>2059</v>
       </c>
     </row>
@@ -66277,7 +66552,7 @@
       <c r="C231" t="s">
         <v>170</v>
       </c>
-      <c r="D231" s="42" t="s">
+      <c r="D231" s="41" t="s">
         <v>2060</v>
       </c>
     </row>
@@ -66291,7 +66566,7 @@
       <c r="C232" t="s">
         <v>187</v>
       </c>
-      <c r="D232" s="42" t="s">
+      <c r="D232" s="41" t="s">
         <v>2061</v>
       </c>
     </row>
@@ -66305,7 +66580,7 @@
       <c r="C233" t="s">
         <v>491</v>
       </c>
-      <c r="D233" s="42" t="s">
+      <c r="D233" s="41" t="s">
         <v>2062</v>
       </c>
     </row>
@@ -66319,7 +66594,7 @@
       <c r="C234" t="s">
         <v>561</v>
       </c>
-      <c r="D234" s="42" t="s">
+      <c r="D234" s="41" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -66333,7 +66608,7 @@
       <c r="C235" t="s">
         <v>80</v>
       </c>
-      <c r="D235" s="42" t="s">
+      <c r="D235" s="41" t="s">
         <v>2064</v>
       </c>
     </row>
@@ -66347,7 +66622,7 @@
       <c r="C236" t="s">
         <v>68</v>
       </c>
-      <c r="D236" s="42" t="s">
+      <c r="D236" s="41" t="s">
         <v>2065</v>
       </c>
     </row>
@@ -66361,7 +66636,7 @@
       <c r="C237" t="s">
         <v>568</v>
       </c>
-      <c r="D237" s="42" t="s">
+      <c r="D237" s="41" t="s">
         <v>2066</v>
       </c>
     </row>
